--- a/Table/ResourceTable.xlsx
+++ b/Table/ResourceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8100C-2AF4-4E92-AEF1-4624651DEBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE6409-903A-405E-BBEB-AF281811814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="21600" windowHeight="11332" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -142,6 +142,29 @@
   </si>
   <si>
     <t>UIGameShopWindow</t>
+  </si>
+  <si>
+    <t>MapTile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCharacter</t>
+  </si>
+  <si>
+    <t>Object/Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapObstacles_{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/Obstacles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2229,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O1505"/>
+  <dimension ref="A2:O1506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2280,16 +2303,16 @@
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="9">
-        <v>1001</v>
+        <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -2297,46 +2320,45 @@
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="9">
-        <v>1005</v>
+        <v>101</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="13"/>
-      <c r="C6" s="2">
-        <v>1011</v>
+      <c r="C6" s="9">
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2">
-        <v>1012</v>
+      <c r="C7" s="9">
+        <v>1001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2345,11 +2367,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" s="13"/>
-      <c r="C8" s="2">
-        <v>1013</v>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9">
+        <v>1005</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -2361,12 +2384,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" s="13"/>
-      <c r="B9" s="10"/>
       <c r="C9" s="2">
-        <v>1014</v>
+        <v>1011</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -2374,27 +2396,63 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" s="13"/>
       <c r="B10" s="10"/>
+      <c r="C10" s="2">
+        <v>1012</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" s="13"/>
       <c r="B11" s="10"/>
+      <c r="C11" s="2">
+        <v>1013</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A12" s="13"/>
       <c r="B12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A13" s="13"/>
       <c r="B13" s="10"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.6">
@@ -2415,7 +2473,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A17" s="13"/>
       <c r="B17" s="10"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A18" s="13"/>
@@ -2455,12 +2513,12 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A25" s="13"/>
       <c r="B25" s="10"/>
-      <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A26" s="13"/>
       <c r="B26" s="10"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.6">
@@ -2486,7 +2544,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="10"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A32" s="13"/>
@@ -2511,7 +2569,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A36" s="13"/>
       <c r="B36" s="10"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="13"/>
@@ -2530,13 +2588,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="13"/>
-      <c r="G40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="H41" s="9"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A42" s="13"/>
@@ -2577,19 +2635,14 @@
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="12"/>
+      <c r="I50" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
@@ -2598,7 +2651,6 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="D51" s="5"/>
       <c r="H51" s="9"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
@@ -2609,6 +2661,7 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
+      <c r="D52" s="5"/>
       <c r="H52" s="9"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3190,11 +3243,11 @@
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A111" s="13"/>
@@ -3249,6 +3302,12 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A117" s="13"/>
@@ -3345,7 +3404,6 @@
     <row r="140" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
-      <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A141" s="13"/>
@@ -3415,6 +3473,7 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
+      <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A155" s="13"/>
@@ -3435,7 +3494,6 @@
     <row r="159" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
-      <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A160" s="13"/>
@@ -3750,11 +3808,11 @@
     <row r="222" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
+      <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
-      <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A224" s="13"/>
@@ -3770,21 +3828,14 @@
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="D226" s="5"/>
-      <c r="I226" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J226" s="12"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
-      <c r="O226" s="12"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="D227" s="5"/>
-      <c r="I227" s="12"/>
+      <c r="I227" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="J227" s="12"/>
       <c r="K227" s="12"/>
       <c r="L227" s="12"/>
@@ -4156,9 +4207,7 @@
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="D258" s="5"/>
-      <c r="I258" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="I258" s="12"/>
       <c r="J258" s="12"/>
       <c r="K258" s="12"/>
       <c r="L258" s="12"/>
@@ -4170,7 +4219,9 @@
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="D259" s="5"/>
-      <c r="I259" s="12"/>
+      <c r="I259" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="J259" s="12"/>
       <c r="K259" s="12"/>
       <c r="L259" s="12"/>
@@ -4230,9 +4281,7 @@
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="D264" s="5"/>
-      <c r="I264" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="I264" s="12"/>
       <c r="J264" s="12"/>
       <c r="K264" s="12"/>
       <c r="L264" s="12"/>
@@ -4244,7 +4293,9 @@
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="D265" s="5"/>
-      <c r="I265" s="12"/>
+      <c r="I265" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="J265" s="12"/>
       <c r="K265" s="12"/>
       <c r="L265" s="12"/>
@@ -4640,6 +4691,13 @@
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="D298" s="5"/>
+      <c r="I298" s="12"/>
+      <c r="J298" s="12"/>
+      <c r="K298" s="12"/>
+      <c r="L298" s="12"/>
+      <c r="M298" s="12"/>
+      <c r="N298" s="12"/>
+      <c r="O298" s="12"/>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A299" s="13"/>
@@ -5276,7 +5334,7 @@
       <c r="B425" s="13"/>
       <c r="D425" s="5"/>
     </row>
-    <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="D426" s="5"/>
@@ -5484,11 +5542,11 @@
     <row r="467" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
+      <c r="D467" s="5"/>
     </row>
     <row r="468" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
-      <c r="D468" s="5"/>
     </row>
     <row r="469" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A469" s="13"/>
@@ -5538,11 +5596,11 @@
     <row r="478" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
+      <c r="D478" s="5"/>
     </row>
     <row r="479" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
-      <c r="D479" s="5"/>
     </row>
     <row r="480" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A480" s="13"/>
@@ -5597,6 +5655,7 @@
     <row r="490" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
+      <c r="D490" s="5"/>
     </row>
     <row r="491" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A491" s="13"/>
@@ -5800,12 +5859,12 @@
     </row>
     <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A541" s="13"/>
-      <c r="B541" s="10"/>
-      <c r="G541" s="11"/>
+      <c r="B541" s="13"/>
     </row>
     <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A542" s="13"/>
       <c r="B542" s="10"/>
+      <c r="G542" s="11"/>
     </row>
     <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A543" s="13"/>
@@ -5949,7 +6008,7 @@
     </row>
     <row r="578" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A578" s="13"/>
-      <c r="B578" s="13"/>
+      <c r="B578" s="10"/>
     </row>
     <row r="579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A579" s="13"/>
@@ -5965,10 +6024,10 @@
     </row>
     <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A582" s="13"/>
+      <c r="B582" s="13"/>
     </row>
     <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A583" s="13"/>
-      <c r="B583" s="13"/>
     </row>
     <row r="584" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A584" s="13"/>
@@ -5992,10 +6051,10 @@
     </row>
     <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A589" s="13"/>
+      <c r="B589" s="13"/>
     </row>
     <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A590" s="13"/>
-      <c r="B590" s="13"/>
     </row>
     <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A591" s="13"/>
@@ -6311,7 +6370,7 @@
     </row>
     <row r="669" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A669" s="13"/>
-      <c r="B669" s="15"/>
+      <c r="B669" s="13"/>
     </row>
     <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A670" s="13"/>
@@ -6367,7 +6426,7 @@
     </row>
     <row r="683" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A683" s="13"/>
-      <c r="B683" s="13"/>
+      <c r="B683" s="15"/>
     </row>
     <row r="684" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A684" s="13"/>
@@ -6443,85 +6502,84 @@
     </row>
     <row r="702" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A702" s="13"/>
+      <c r="B702" s="13"/>
     </row>
     <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A703" s="13"/>
-      <c r="B703" s="13"/>
     </row>
     <row r="704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A704" s="13"/>
       <c r="B704" s="13"/>
     </row>
-    <row r="705" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A705" s="13"/>
       <c r="B705" s="13"/>
     </row>
-    <row r="706" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="706" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A706" s="13"/>
       <c r="B706" s="13"/>
     </row>
-    <row r="707" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="707" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A707" s="13"/>
       <c r="B707" s="13"/>
     </row>
-    <row r="708" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="708" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A708" s="13"/>
       <c r="B708" s="13"/>
     </row>
-    <row r="709" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A709" s="13"/>
-    </row>
-    <row r="710" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B709" s="13"/>
+    </row>
+    <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A710" s="13"/>
-      <c r="B710" s="15"/>
-    </row>
-    <row r="711" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A711" s="13"/>
-      <c r="B711" s="13"/>
-    </row>
-    <row r="712" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B711" s="15"/>
+    </row>
+    <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A712" s="13"/>
       <c r="B712" s="13"/>
     </row>
-    <row r="713" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A713" s="13"/>
       <c r="B713" s="13"/>
     </row>
-    <row r="714" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="714" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A714" s="13"/>
       <c r="B714" s="13"/>
     </row>
-    <row r="715" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="715" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A715" s="13"/>
-      <c r="B715" s="15"/>
-    </row>
-    <row r="716" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B715" s="13"/>
+    </row>
+    <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A716" s="13"/>
-      <c r="B716" s="13"/>
-    </row>
-    <row r="717" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B716" s="15"/>
+    </row>
+    <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A717" s="13"/>
       <c r="B717" s="13"/>
     </row>
-    <row r="718" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A718" s="13"/>
       <c r="B718" s="13"/>
     </row>
-    <row r="719" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="719" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A719" s="13"/>
       <c r="B719" s="13"/>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="720" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A720" s="13"/>
-      <c r="B720" s="15"/>
-      <c r="H720" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B720" s="13"/>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A721" s="13"/>
       <c r="B721" s="15"/>
-      <c r="H721" s="12"/>
+      <c r="H721" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A722" s="13"/>
@@ -6531,6 +6589,7 @@
     <row r="723" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A723" s="13"/>
       <c r="B723" s="15"/>
+      <c r="H723" s="12"/>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A724" s="13"/>
@@ -6542,7 +6601,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A726" s="13"/>
-      <c r="B726" s="6"/>
+      <c r="B726" s="15"/>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A727" s="13"/>
@@ -6550,7 +6609,7 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A728" s="13"/>
-      <c r="B728" s="13"/>
+      <c r="B728" s="6"/>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A729" s="13"/>
@@ -6734,16 +6793,16 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A774" s="13"/>
-      <c r="B774" s="15"/>
+      <c r="B774" s="13"/>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A775" s="13"/>
-      <c r="B775" s="13"/>
-      <c r="K775" s="2"/>
+      <c r="B775" s="15"/>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A776" s="13"/>
       <c r="B776" s="13"/>
+      <c r="K776" s="2"/>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A777" s="13"/>
@@ -6864,7 +6923,6 @@
     <row r="806" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A806" s="13"/>
       <c r="B806" s="13"/>
-      <c r="K806" s="2"/>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A807" s="13"/>
@@ -6883,12 +6941,12 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A810" s="13"/>
-      <c r="B810" s="15"/>
+      <c r="B810" s="13"/>
       <c r="K810" s="2"/>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A811" s="13"/>
-      <c r="B811" s="13"/>
+      <c r="B811" s="15"/>
       <c r="K811" s="2"/>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.6">
@@ -6908,7 +6966,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A815" s="13"/>
-      <c r="B815" s="15"/>
+      <c r="B815" s="13"/>
       <c r="K815" s="2"/>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.6">
@@ -6984,6 +7042,7 @@
     <row r="830" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A830" s="13"/>
       <c r="B830" s="15"/>
+      <c r="K830" s="2"/>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A831" s="13"/>
@@ -7000,7 +7059,6 @@
     <row r="834" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A834" s="13"/>
       <c r="B834" s="15"/>
-      <c r="D834" s="3"/>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A835" s="13"/>
@@ -7035,6 +7093,7 @@
     <row r="841" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A841" s="13"/>
       <c r="B841" s="15"/>
+      <c r="D841" s="3"/>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A842" s="13"/>
@@ -7079,7 +7138,6 @@
     <row r="852" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A852" s="13"/>
       <c r="B852" s="15"/>
-      <c r="H852" s="2"/>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A853" s="13"/>
@@ -7136,11 +7194,12 @@
       <c r="B863" s="15"/>
       <c r="H863" s="2"/>
     </row>
-    <row r="864" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A864" s="13"/>
       <c r="B864" s="15"/>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="H864" s="2"/>
+    </row>
+    <row r="865" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A865" s="13"/>
       <c r="B865" s="15"/>
     </row>
@@ -7239,8 +7298,6 @@
     <row r="889" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A889" s="13"/>
       <c r="B889" s="15"/>
-      <c r="D889" s="3"/>
-      <c r="I889" s="2"/>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A890" s="13"/>
@@ -7275,6 +7332,7 @@
     <row r="895" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A895" s="13"/>
       <c r="B895" s="15"/>
+      <c r="D895" s="3"/>
       <c r="I895" s="2"/>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.6">
@@ -7355,6 +7413,7 @@
     <row r="911" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A911" s="13"/>
       <c r="B911" s="15"/>
+      <c r="I911" s="2"/>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A912" s="13"/>
@@ -7392,11 +7451,11 @@
       <c r="A920" s="13"/>
       <c r="B920" s="15"/>
     </row>
-    <row r="921" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A921" s="13"/>
       <c r="B921" s="15"/>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="922" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A922" s="13"/>
       <c r="B922" s="15"/>
     </row>
@@ -7451,7 +7510,6 @@
     <row r="935" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A935" s="13"/>
       <c r="B935" s="15"/>
-      <c r="H935" s="2"/>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A936" s="13"/>
@@ -7490,14 +7548,15 @@
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A943" s="13"/>
-      <c r="B943" s="13"/>
+      <c r="B943" s="15"/>
+      <c r="H943" s="2"/>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A944" s="13"/>
+      <c r="B944" s="13"/>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A945" s="13"/>
-      <c r="B945" s="15"/>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A946" s="13"/>
@@ -7577,7 +7636,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A965" s="13"/>
-      <c r="B965" s="13"/>
+      <c r="B965" s="15"/>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A966" s="13"/>
@@ -7603,11 +7662,11 @@
       <c r="A971" s="13"/>
       <c r="B971" s="13"/>
     </row>
-    <row r="972" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A972" s="13"/>
       <c r="B972" s="13"/>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="973" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
     </row>
@@ -7615,11 +7674,11 @@
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
     </row>
-    <row r="975" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A975" s="13"/>
       <c r="B975" s="13"/>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="976" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A976" s="13"/>
       <c r="B976" s="13"/>
     </row>
@@ -7653,12 +7712,11 @@
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A984" s="13"/>
-      <c r="B984" s="15"/>
+      <c r="B984" s="13"/>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A985" s="13"/>
       <c r="B985" s="15"/>
-      <c r="H985" s="2"/>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A986" s="13"/>
@@ -7732,7 +7790,7 @@
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1000" s="13"/>
-      <c r="B1000" s="13"/>
+      <c r="B1000" s="15"/>
       <c r="H1000" s="2"/>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.6">
@@ -7752,6 +7810,7 @@
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1004" s="13"/>
+      <c r="B1004" s="13"/>
       <c r="H1004" s="2"/>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.6">
@@ -7760,7 +7819,6 @@
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1006" s="13"/>
-      <c r="B1006" s="13"/>
       <c r="H1006" s="2"/>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.6">
@@ -7790,7 +7848,7 @@
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1012" s="13"/>
-      <c r="B1012" s="15"/>
+      <c r="B1012" s="13"/>
       <c r="H1012" s="2"/>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.6">
@@ -7860,7 +7918,7 @@
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1026" s="13"/>
-      <c r="B1026" s="13"/>
+      <c r="B1026" s="15"/>
       <c r="H1026" s="2"/>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.6">
@@ -8063,9 +8121,10 @@
       <c r="B1066" s="13"/>
       <c r="H1066" s="2"/>
     </row>
-    <row r="1067" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1067" s="13"/>
       <c r="B1067" s="13"/>
+      <c r="H1067" s="2"/>
     </row>
     <row r="1068" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1068" s="13"/>
@@ -8107,7 +8166,7 @@
       <c r="A1077" s="13"/>
       <c r="B1077" s="13"/>
     </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1078" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1078" s="13"/>
       <c r="B1078" s="13"/>
     </row>
@@ -8306,11 +8365,11 @@
     <row r="1127" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1127" s="13"/>
       <c r="B1127" s="13"/>
-      <c r="H1127" s="2"/>
     </row>
     <row r="1128" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1128" s="13"/>
       <c r="B1128" s="13"/>
+      <c r="H1128" s="2"/>
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1129" s="13"/>
@@ -8324,11 +8383,11 @@
       <c r="A1131" s="13"/>
       <c r="B1131" s="13"/>
     </row>
-    <row r="1132" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1132" s="13"/>
       <c r="B1132" s="13"/>
     </row>
-    <row r="1133" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1133" s="13"/>
       <c r="B1133" s="13"/>
     </row>
@@ -8740,11 +8799,11 @@
       <c r="A1235" s="13"/>
       <c r="B1235" s="13"/>
     </row>
-    <row r="1236" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1236" s="13"/>
       <c r="B1236" s="13"/>
     </row>
-    <row r="1237" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1237" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1237" s="13"/>
       <c r="B1237" s="13"/>
     </row>
@@ -8764,11 +8823,11 @@
       <c r="A1241" s="13"/>
       <c r="B1241" s="13"/>
     </row>
-    <row r="1242" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1242" s="13"/>
       <c r="B1242" s="13"/>
     </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1243" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1243" s="13"/>
       <c r="B1243" s="13"/>
     </row>
@@ -8814,6 +8873,7 @@
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1254" s="13"/>
+      <c r="B1254" s="13"/>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1255" s="13"/>
@@ -8842,10 +8902,10 @@
     <row r="1263" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1263" s="13"/>
     </row>
-    <row r="1264" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1264" s="13"/>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="1265" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1265" s="13"/>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.6">
@@ -9568,80 +9628,83 @@
     <row r="1505" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1505" s="13"/>
     </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A1506" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B964:B983"/>
-    <mergeCell ref="B777:B780"/>
-    <mergeCell ref="B996:B998"/>
-    <mergeCell ref="B990:B995"/>
-    <mergeCell ref="B534:B540"/>
-    <mergeCell ref="B984:B989"/>
-    <mergeCell ref="B932:B941"/>
-    <mergeCell ref="B720:B722"/>
-    <mergeCell ref="B900:B931"/>
-    <mergeCell ref="B880:B899"/>
-    <mergeCell ref="B810:B814"/>
-    <mergeCell ref="B817:B824"/>
-    <mergeCell ref="B815:B816"/>
-    <mergeCell ref="B945:B963"/>
-    <mergeCell ref="B942:B943"/>
-    <mergeCell ref="B825:B879"/>
-    <mergeCell ref="B781:B809"/>
-    <mergeCell ref="B728:B773"/>
-    <mergeCell ref="A955:A961"/>
-    <mergeCell ref="A980:A1505"/>
-    <mergeCell ref="B1093:B1253"/>
-    <mergeCell ref="A978:A979"/>
-    <mergeCell ref="A972:A977"/>
-    <mergeCell ref="A962:A971"/>
-    <mergeCell ref="B1079:B1082"/>
-    <mergeCell ref="B1066:B1078"/>
-    <mergeCell ref="B1025:B1027"/>
-    <mergeCell ref="B1091:B1092"/>
-    <mergeCell ref="B1083:B1090"/>
-    <mergeCell ref="B1056:B1065"/>
-    <mergeCell ref="B1028:B1055"/>
-    <mergeCell ref="B1012:B1024"/>
-    <mergeCell ref="B1006:B1011"/>
-    <mergeCell ref="B999:B1003"/>
-    <mergeCell ref="A4:A954"/>
-    <mergeCell ref="B703:B708"/>
-    <mergeCell ref="B226:B376"/>
-    <mergeCell ref="B699:B701"/>
-    <mergeCell ref="B486:B508"/>
-    <mergeCell ref="B509:B529"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="B691:B698"/>
-    <mergeCell ref="B583:B584"/>
-    <mergeCell ref="B659:B668"/>
-    <mergeCell ref="B774:B776"/>
-    <mergeCell ref="B710:B714"/>
-    <mergeCell ref="B715:B719"/>
-    <mergeCell ref="B723:B725"/>
-    <mergeCell ref="I49:M109"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="B612:B631"/>
-    <mergeCell ref="B578:B581"/>
-    <mergeCell ref="B683:B690"/>
-    <mergeCell ref="B600:B611"/>
-    <mergeCell ref="B590:B599"/>
-    <mergeCell ref="B632:B658"/>
-    <mergeCell ref="B585:B588"/>
-    <mergeCell ref="B669:B682"/>
-    <mergeCell ref="B78:B179"/>
-    <mergeCell ref="B180:B225"/>
-    <mergeCell ref="B53:B77"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H17:H25"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="B965:B984"/>
+    <mergeCell ref="B778:B781"/>
+    <mergeCell ref="B997:B999"/>
+    <mergeCell ref="B991:B996"/>
+    <mergeCell ref="B535:B541"/>
+    <mergeCell ref="B985:B990"/>
+    <mergeCell ref="B933:B942"/>
+    <mergeCell ref="B721:B723"/>
+    <mergeCell ref="B901:B932"/>
+    <mergeCell ref="B881:B900"/>
+    <mergeCell ref="B811:B815"/>
+    <mergeCell ref="B818:B825"/>
+    <mergeCell ref="B816:B817"/>
+    <mergeCell ref="B946:B964"/>
+    <mergeCell ref="B943:B944"/>
+    <mergeCell ref="B826:B880"/>
+    <mergeCell ref="B782:B810"/>
+    <mergeCell ref="B729:B774"/>
+    <mergeCell ref="A956:A962"/>
+    <mergeCell ref="A981:A1506"/>
+    <mergeCell ref="B1094:B1254"/>
+    <mergeCell ref="A979:A980"/>
+    <mergeCell ref="A973:A978"/>
+    <mergeCell ref="A963:A972"/>
+    <mergeCell ref="B1080:B1083"/>
+    <mergeCell ref="B1067:B1079"/>
+    <mergeCell ref="B1026:B1028"/>
+    <mergeCell ref="B1092:B1093"/>
+    <mergeCell ref="B1084:B1091"/>
+    <mergeCell ref="B1057:B1066"/>
+    <mergeCell ref="B1029:B1056"/>
+    <mergeCell ref="B1013:B1025"/>
+    <mergeCell ref="B1007:B1012"/>
+    <mergeCell ref="B1000:B1004"/>
+    <mergeCell ref="A4:A955"/>
+    <mergeCell ref="B704:B709"/>
+    <mergeCell ref="B227:B377"/>
+    <mergeCell ref="B700:B702"/>
+    <mergeCell ref="B487:B509"/>
+    <mergeCell ref="B510:B530"/>
+    <mergeCell ref="B531:B534"/>
+    <mergeCell ref="B692:B699"/>
+    <mergeCell ref="B584:B585"/>
+    <mergeCell ref="B660:B669"/>
+    <mergeCell ref="B775:B777"/>
+    <mergeCell ref="B711:B715"/>
+    <mergeCell ref="B716:B720"/>
+    <mergeCell ref="B724:B726"/>
+    <mergeCell ref="I50:M110"/>
+    <mergeCell ref="B42:B53"/>
+    <mergeCell ref="B613:B632"/>
+    <mergeCell ref="B579:B582"/>
+    <mergeCell ref="B684:B691"/>
+    <mergeCell ref="B601:B612"/>
+    <mergeCell ref="B591:B600"/>
+    <mergeCell ref="B633:B659"/>
+    <mergeCell ref="B586:B589"/>
+    <mergeCell ref="B670:B683"/>
+    <mergeCell ref="B79:B180"/>
+    <mergeCell ref="B181:B226"/>
+    <mergeCell ref="B54:B78"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="H18:H26"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="H27:H31"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H720:H722"/>
-    <mergeCell ref="B468:B485"/>
-    <mergeCell ref="I226:O257"/>
-    <mergeCell ref="I258:O263"/>
-    <mergeCell ref="I264:O297"/>
-    <mergeCell ref="B377:B467"/>
+    <mergeCell ref="H721:H723"/>
+    <mergeCell ref="B469:B486"/>
+    <mergeCell ref="I227:O258"/>
+    <mergeCell ref="I259:O264"/>
+    <mergeCell ref="I265:O298"/>
+    <mergeCell ref="B378:B468"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3">
@@ -9654,357 +9717,357 @@
     <cfRule type="duplicateValues" dxfId="153" priority="22"/>
     <cfRule type="duplicateValues" dxfId="152" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C180:C468 C470 C472 C474 C476:C477 C479 C481 C483 C485">
-    <cfRule type="duplicateValues" dxfId="151" priority="14678"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C505:C569">
-    <cfRule type="duplicateValues" dxfId="150" priority="9454"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C570:C572">
-    <cfRule type="duplicateValues" dxfId="149" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C678:C685">
-    <cfRule type="duplicateValues" dxfId="147" priority="5969"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C687">
-    <cfRule type="duplicateValues" dxfId="146" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C694 C696">
-    <cfRule type="duplicateValues" dxfId="145" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C704">
-    <cfRule type="duplicateValues" dxfId="144" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C751">
-    <cfRule type="duplicateValues" dxfId="142" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C762">
-    <cfRule type="duplicateValues" dxfId="140" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C763 C765:C766">
-    <cfRule type="duplicateValues" dxfId="138" priority="116"/>
+  <conditionalFormatting sqref="C4:C8">
+    <cfRule type="duplicateValues" dxfId="151" priority="14748"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181:C469 C471 C473 C475 C477:C478 C480 C482 C484 C486">
+    <cfRule type="duplicateValues" dxfId="150" priority="14678"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C506:C570">
+    <cfRule type="duplicateValues" dxfId="149" priority="9454"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C571:C573">
+    <cfRule type="duplicateValues" dxfId="148" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C679:C686">
+    <cfRule type="duplicateValues" dxfId="146" priority="5969"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C688">
+    <cfRule type="duplicateValues" dxfId="145" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C695 C697">
+    <cfRule type="duplicateValues" dxfId="144" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C705">
+    <cfRule type="duplicateValues" dxfId="143" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C752">
+    <cfRule type="duplicateValues" dxfId="141" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C763">
-    <cfRule type="duplicateValues" dxfId="137" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C764:C766">
-    <cfRule type="duplicateValues" dxfId="136" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C766">
-    <cfRule type="duplicateValues" dxfId="135" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C855:C874">
-    <cfRule type="duplicateValues" dxfId="134" priority="7424"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C895:C926">
-    <cfRule type="duplicateValues" dxfId="133" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C937:C939">
-    <cfRule type="duplicateValues" dxfId="131" priority="1722"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C979 C981 C983 C985:C997 C999 C1001:C1005 C1007:C1076">
-    <cfRule type="duplicateValues" dxfId="130" priority="8164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1000">
-    <cfRule type="duplicateValues" dxfId="129" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1078:C1085">
-    <cfRule type="duplicateValues" dxfId="127" priority="9753"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1086:C1087">
-    <cfRule type="duplicateValues" dxfId="126" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1088:C1241 C927:C999 C705:C750 C875:C894 C752:C759 C1001:C1005 C1007:C1076 C694:C703 C1243 C573:C692 C805:C854 C776:C802 C1245:C1048576 C469 C48:C179 C471 C473 C475 C478 C480 C482 C484 C486:C507 C11:C45 C4:C9">
-    <cfRule type="duplicateValues" dxfId="124" priority="14715"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1088:C1241 C1243 C1078:C1085 C805:C1076 C769:C802 C573:C766 C1245:C1048576 C469 C48:C179 C471 C473 C475 C478 C480 C482 C484 C486:C569 C11:C45 C4:C9">
-    <cfRule type="duplicateValues" dxfId="123" priority="14747"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1089">
-    <cfRule type="duplicateValues" dxfId="122" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1090 C1092 C1094 C1096 C1098 C1100">
-    <cfRule type="duplicateValues" dxfId="121" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C764 C766:C767">
+    <cfRule type="duplicateValues" dxfId="137" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C764">
+    <cfRule type="duplicateValues" dxfId="136" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C765:C767">
+    <cfRule type="duplicateValues" dxfId="135" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C767">
+    <cfRule type="duplicateValues" dxfId="134" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C856:C875">
+    <cfRule type="duplicateValues" dxfId="133" priority="7424"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C896:C927">
+    <cfRule type="duplicateValues" dxfId="132" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C938:C940">
+    <cfRule type="duplicateValues" dxfId="130" priority="1722"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C980 C982 C984 C986:C998 C1000 C1002:C1006 C1008:C1077">
+    <cfRule type="duplicateValues" dxfId="129" priority="8164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C981 C983 C985 C941:C979 C689:C693 C687 C641 C928:C937 C698:C704 C706:C751 C655:C678 C876:C895 C753:C760 C574:C639 C806:C855 C777:C803 C470 C49:C180 C472 C474 C476 C479 C481 C483 C485 C487:C508 C7:C46">
+    <cfRule type="duplicateValues" dxfId="128" priority="14749"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1001">
+    <cfRule type="duplicateValues" dxfId="127" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1079:C1086">
+    <cfRule type="duplicateValues" dxfId="125" priority="9753"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1087:C1088">
+    <cfRule type="duplicateValues" dxfId="124" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1089:C1242 C928:C1000 C706:C751 C876:C895 C753:C760 C1002:C1006 C1008:C1077 C695:C704 C1244 C574:C693 C806:C855 C777:C803 C1246:C1048576 C470 C49:C180 C472 C474 C476 C479 C481 C483 C485 C487:C508 C4:C46">
+    <cfRule type="duplicateValues" dxfId="122" priority="14715"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1089:C1242 C1244 C1079:C1086 C806:C1077 C770:C803 C574:C767 C1246:C1048576 C470 C49:C180 C472 C474 C476 C479 C481 C483 C485 C487:C570 C4:C46">
+    <cfRule type="duplicateValues" dxfId="121" priority="14747"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1090">
-    <cfRule type="duplicateValues" dxfId="120" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1144:C1145 C1127 C1088 C1102 C1106 C1108 C1110 C1112 C1114 C1116 C1118 C1120 C1122 C1124 C1129 C1131 C1133 C1135 C1137 C1139 C1141 C1147 C1149 C1151 C1153 C1155 C1157 C1159 C1161 C1163 C1165 C1167 C1169 C1171 C1173 C1104 C1175 C1178:C1241 C1243 C1245:C1048576">
-    <cfRule type="duplicateValues" dxfId="119" priority="312"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="858"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1146 C1105 C695 C1089 C1091 C1093 C1095 C1097 C1099 C1101 C1107 C1109 C1111 C1113 C1115 C1117 C1119 C1121 C1123 C1125:C1126 C1128 C1130 C1132 C1134 C1136 C1138 C1140 C1142:C1143 C1148 C1150 C1152 C1154 C1156 C1158 C1160 C1162 C1164 C1166 C1168 C1170 C1172 C1174 C1103 C1176:C1177">
-    <cfRule type="duplicateValues" dxfId="117" priority="1045"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1242 C1244">
-    <cfRule type="duplicateValues" dxfId="116" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1242">
-    <cfRule type="duplicateValues" dxfId="115" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="256"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1091 C1093 C1095 C1097 C1099 C1101">
+    <cfRule type="duplicateValues" dxfId="119" priority="255"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1091">
+    <cfRule type="duplicateValues" dxfId="118" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1145:C1146 C1128 C1089 C1103 C1107 C1109 C1111 C1113 C1115 C1117 C1119 C1121 C1123 C1125 C1130 C1132 C1134 C1136 C1138 C1140 C1142 C1148 C1150 C1152 C1154 C1156 C1158 C1160 C1162 C1164 C1166 C1168 C1170 C1172 C1174 C1105 C1176 C1179:C1242 C1244 C1246:C1048576">
+    <cfRule type="duplicateValues" dxfId="117" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="858"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1147 C1106 C696 C1090 C1092 C1094 C1096 C1098 C1100 C1102 C1108 C1110 C1112 C1114 C1116 C1118 C1120 C1122 C1124 C1126:C1127 C1129 C1131 C1133 C1135 C1137 C1139 C1141 C1143:C1144 C1149 C1151 C1153 C1155 C1157 C1159 C1161 C1163 C1165 C1167 C1169 C1171 C1173 C1175 C1104 C1177:C1178">
+    <cfRule type="duplicateValues" dxfId="115" priority="1045"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1243 C1245">
+    <cfRule type="duplicateValues" dxfId="114" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1243">
+    <cfRule type="duplicateValues" dxfId="113" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="112" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D6">
-    <cfRule type="duplicateValues" dxfId="107" priority="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D62">
-    <cfRule type="duplicateValues" dxfId="106" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D77">
-    <cfRule type="duplicateValues" dxfId="105" priority="13557"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D478">
-    <cfRule type="duplicateValues" dxfId="104" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D505">
-    <cfRule type="duplicateValues" dxfId="103" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D523:D524 D547 D516:D518 D506:D511">
-    <cfRule type="duplicateValues" dxfId="102" priority="8903"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D532:D537 D548 D542:D546 K775">
-    <cfRule type="duplicateValues" dxfId="101" priority="9242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D595">
-    <cfRule type="duplicateValues" dxfId="100" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D9">
+    <cfRule type="duplicateValues" dxfId="105" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:D63">
+    <cfRule type="duplicateValues" dxfId="104" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64:D78">
+    <cfRule type="duplicateValues" dxfId="103" priority="13557"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D479">
+    <cfRule type="duplicateValues" dxfId="102" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D506">
+    <cfRule type="duplicateValues" dxfId="101" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D524:D525 D548 D517:D519 D507:D512">
+    <cfRule type="duplicateValues" dxfId="100" priority="8903"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D533:D538 D549 D543:D547 K776">
+    <cfRule type="duplicateValues" dxfId="99" priority="9242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D596">
-    <cfRule type="duplicateValues" dxfId="99" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D597">
-    <cfRule type="duplicateValues" dxfId="98" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D598:D606">
-    <cfRule type="duplicateValues" dxfId="97" priority="8562"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D639:D640">
-    <cfRule type="duplicateValues" dxfId="96" priority="3559"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D641:D651">
-    <cfRule type="duplicateValues" dxfId="95" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D652:D653">
-    <cfRule type="duplicateValues" dxfId="94" priority="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D665:D666">
-    <cfRule type="duplicateValues" dxfId="93" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D667">
-    <cfRule type="duplicateValues" dxfId="92" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D674">
-    <cfRule type="duplicateValues" dxfId="91" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D678">
-    <cfRule type="duplicateValues" dxfId="90" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D680">
-    <cfRule type="duplicateValues" dxfId="89" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D687">
-    <cfRule type="duplicateValues" dxfId="88" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D690">
-    <cfRule type="duplicateValues" dxfId="87" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D691:D692">
-    <cfRule type="duplicateValues" dxfId="86" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D694">
-    <cfRule type="duplicateValues" dxfId="85" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D698:D703 D705:D722">
-    <cfRule type="duplicateValues" dxfId="84" priority="6305"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D704">
-    <cfRule type="duplicateValues" dxfId="83" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D726:D727">
-    <cfRule type="duplicateValues" dxfId="82" priority="1883"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D728:D750 D752:D759">
-    <cfRule type="duplicateValues" dxfId="81" priority="2135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D751">
-    <cfRule type="duplicateValues" dxfId="80" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D762">
-    <cfRule type="duplicateValues" dxfId="79" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D598">
+    <cfRule type="duplicateValues" dxfId="96" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D599:D607">
+    <cfRule type="duplicateValues" dxfId="95" priority="8562"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D640:D641">
+    <cfRule type="duplicateValues" dxfId="94" priority="3559"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D642:D652">
+    <cfRule type="duplicateValues" dxfId="93" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D653:D654">
+    <cfRule type="duplicateValues" dxfId="92" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D666:D667">
+    <cfRule type="duplicateValues" dxfId="91" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D668">
+    <cfRule type="duplicateValues" dxfId="90" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D675">
+    <cfRule type="duplicateValues" dxfId="89" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D679">
+    <cfRule type="duplicateValues" dxfId="88" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D681">
+    <cfRule type="duplicateValues" dxfId="87" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D688">
+    <cfRule type="duplicateValues" dxfId="86" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D691">
+    <cfRule type="duplicateValues" dxfId="85" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D692:D693">
+    <cfRule type="duplicateValues" dxfId="84" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D695">
+    <cfRule type="duplicateValues" dxfId="83" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D699:D704 D706:D723">
+    <cfRule type="duplicateValues" dxfId="82" priority="6305"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D705">
+    <cfRule type="duplicateValues" dxfId="81" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D727:D728">
+    <cfRule type="duplicateValues" dxfId="80" priority="1883"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D729:D751 D753:D760">
+    <cfRule type="duplicateValues" dxfId="79" priority="2135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D752">
+    <cfRule type="duplicateValues" dxfId="78" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D763">
-    <cfRule type="duplicateValues" dxfId="78" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D764:D766">
-    <cfRule type="duplicateValues" dxfId="77" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D776:D777">
-    <cfRule type="duplicateValues" dxfId="76" priority="205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D778">
-    <cfRule type="duplicateValues" dxfId="75" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D764">
+    <cfRule type="duplicateValues" dxfId="76" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D765:D767">
+    <cfRule type="duplicateValues" dxfId="75" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D777:D778">
+    <cfRule type="duplicateValues" dxfId="74" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D779">
-    <cfRule type="duplicateValues" dxfId="74" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D780">
-    <cfRule type="duplicateValues" dxfId="73" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D781">
-    <cfRule type="duplicateValues" dxfId="72" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D782:D783">
-    <cfRule type="duplicateValues" dxfId="71" priority="206"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D805:D809 D784:D802">
-    <cfRule type="duplicateValues" dxfId="70" priority="9936"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D825">
-    <cfRule type="duplicateValues" dxfId="69" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D875:D879 D881:D888">
-    <cfRule type="duplicateValues" dxfId="68" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D880">
-    <cfRule type="duplicateValues" dxfId="67" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D895:D926">
-    <cfRule type="duplicateValues" dxfId="66" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D937:D939">
-    <cfRule type="duplicateValues" dxfId="65" priority="1723"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D940:D978 D46 D49:D50 D43:D44 D810:D811 D826:D833 D820:D824 D697 D607:D638 D688:D689 D723:D725 D679 D668:D673 D681:D686 D490:D504 D675:D677 D654:D664 D573:D594 D11 D7:D9">
-    <cfRule type="duplicateValues" dxfId="64" priority="12220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D980 D982 D984">
-    <cfRule type="duplicateValues" dxfId="63" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1000">
-    <cfRule type="duplicateValues" dxfId="62" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1023">
-    <cfRule type="duplicateValues" dxfId="61" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1024:D1027 D979 D981 D983 D999 D985:D997 D1031:D1076 D1007:D1022 D1001:D1005">
-    <cfRule type="duplicateValues" dxfId="60" priority="8154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1028:D1029">
-    <cfRule type="duplicateValues" dxfId="59" priority="2626"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1030">
-    <cfRule type="duplicateValues" dxfId="58" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1078">
-    <cfRule type="duplicateValues" dxfId="57" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1079:D1085">
-    <cfRule type="duplicateValues" dxfId="56" priority="9754"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1086:D1087">
-    <cfRule type="duplicateValues" dxfId="55" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1089">
-    <cfRule type="duplicateValues" dxfId="54" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1211">
-    <cfRule type="duplicateValues" dxfId="53" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D782">
+    <cfRule type="duplicateValues" dxfId="70" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D783:D784">
+    <cfRule type="duplicateValues" dxfId="69" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D806:D810 D785:D803">
+    <cfRule type="duplicateValues" dxfId="68" priority="9936"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D826">
+    <cfRule type="duplicateValues" dxfId="67" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D876:D880 D882:D889">
+    <cfRule type="duplicateValues" dxfId="66" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D881">
+    <cfRule type="duplicateValues" dxfId="65" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D896:D927">
+    <cfRule type="duplicateValues" dxfId="64" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D938:D940">
+    <cfRule type="duplicateValues" dxfId="63" priority="1723"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D941:D979 D47 D50:D51 D44:D45 D811:D812 D827:D834 D821:D825 D698 D608:D639 D689:D690 D724:D726 D680 D669:D674 D682:D687 D491:D505 D676:D678 D655:D665 D574:D595 D8:D12 D4">
+    <cfRule type="duplicateValues" dxfId="62" priority="12220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D981 D983 D985">
+    <cfRule type="duplicateValues" dxfId="61" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1001">
+    <cfRule type="duplicateValues" dxfId="60" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1024">
+    <cfRule type="duplicateValues" dxfId="59" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1025:D1028 D980 D982 D984 D1000 D986:D998 D1032:D1077 D1008:D1023 D1002:D1006">
+    <cfRule type="duplicateValues" dxfId="58" priority="8154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1029:D1030">
+    <cfRule type="duplicateValues" dxfId="57" priority="2626"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1031">
+    <cfRule type="duplicateValues" dxfId="56" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1079">
+    <cfRule type="duplicateValues" dxfId="55" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1080:D1086">
+    <cfRule type="duplicateValues" dxfId="54" priority="9754"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1087:D1088">
+    <cfRule type="duplicateValues" dxfId="53" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1090">
+    <cfRule type="duplicateValues" dxfId="52" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1212">
-    <cfRule type="duplicateValues" dxfId="52" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1213:D1226 D1196:D1210 D1185:D1187 D1088 D998 D695:D696 D1090:D1183 D1189:D1194 D1229:D1241 D1243:D1048576">
-    <cfRule type="duplicateValues" dxfId="51" priority="7226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1227">
-    <cfRule type="duplicateValues" dxfId="50" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1213">
+    <cfRule type="duplicateValues" dxfId="50" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1214:D1227 D1197:D1211 D1186:D1188 D1089 D999 D696:D697 D1091:D1184 D1190:D1195 D1230:D1242 D1244:D1048576">
+    <cfRule type="duplicateValues" dxfId="49" priority="7226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1228">
-    <cfRule type="duplicateValues" dxfId="49" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1242">
-    <cfRule type="duplicateValues" dxfId="48" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1229">
+    <cfRule type="duplicateValues" dxfId="47" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1243">
+    <cfRule type="duplicateValues" dxfId="46" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="47" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H852">
-    <cfRule type="duplicateValues" dxfId="37" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H853">
-    <cfRule type="duplicateValues" dxfId="36" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H854">
-    <cfRule type="duplicateValues" dxfId="35" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H855:H863">
-    <cfRule type="duplicateValues" dxfId="34" priority="8561"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H935:H937 H939 H941:H942">
-    <cfRule type="duplicateValues" dxfId="33" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H938 H940">
-    <cfRule type="duplicateValues" dxfId="32" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H985">
-    <cfRule type="duplicateValues" dxfId="31" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H855">
+    <cfRule type="duplicateValues" dxfId="33" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H856:H864">
+    <cfRule type="duplicateValues" dxfId="32" priority="8561"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H936:H938 H940 H942:H943">
+    <cfRule type="duplicateValues" dxfId="31" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H939 H941">
+    <cfRule type="duplicateValues" dxfId="30" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H986">
-    <cfRule type="duplicateValues" dxfId="30" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H987">
-    <cfRule type="duplicateValues" dxfId="29" priority="240"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H988:H1066">
-    <cfRule type="duplicateValues" dxfId="28" priority="10291"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I889:I890">
-    <cfRule type="duplicateValues" dxfId="27" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I891">
-    <cfRule type="duplicateValues" dxfId="26" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H988">
+    <cfRule type="duplicateValues" dxfId="27" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H989:H1067">
+    <cfRule type="duplicateValues" dxfId="26" priority="10291"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I890:I891">
+    <cfRule type="duplicateValues" dxfId="25" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I892">
-    <cfRule type="duplicateValues" dxfId="25" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I893">
-    <cfRule type="duplicateValues" dxfId="24" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I894">
-    <cfRule type="duplicateValues" dxfId="23" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I895:I910">
-    <cfRule type="duplicateValues" dxfId="22" priority="5803"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="duplicateValues" dxfId="1" priority="14748"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C980 C982 C984 C940:C978 C688:C692 C686 C640 C927:C936 C697:C703 C705:C750 C654:C677 C875:C894 C752:C759 C573:C638 C805:C854 C776:C802 C469 C48:C179 C471 C473 C475 C478 C480 C482 C484 C486:C507 C11:C45 C6:C9">
-    <cfRule type="duplicateValues" dxfId="0" priority="14749"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I895">
+    <cfRule type="duplicateValues" dxfId="21" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I896:I911">
+    <cfRule type="duplicateValues" dxfId="20" priority="5803"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10016,7 +10079,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -10056,17 +10119,26 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B6" s="2">
         <v>3</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B7" s="2">
         <v>4</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B8" s="2">
@@ -10084,18 +10156,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10247,20 +10319,20 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:G3 J3">
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:G3">
-    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Table/ResourceTable.xlsx
+++ b/Table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE6409-903A-405E-BBEB-AF281811814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE1B70-84B1-4AAB-8B1F-81765529B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="21600" windowHeight="11332" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -165,6 +165,9 @@
   <si>
     <t>Map/Obstacles</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapTileDeadZone</t>
   </si>
 </sst>
 </file>
@@ -355,16 +358,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2252,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O1506"/>
+  <dimension ref="A2:O1507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2314,7 +2317,7 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" s="13"/>
@@ -2331,7 +2334,7 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="13"/>
@@ -2347,48 +2350,48 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" s="13"/>
       <c r="C7" s="9">
+        <v>103</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="13"/>
+      <c r="C8" s="9">
         <v>1001</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9">
-        <v>1005</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" s="13"/>
-      <c r="C9" s="2">
-        <v>1011</v>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9">
+        <v>1005</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -2396,16 +2399,15 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" s="13"/>
-      <c r="B10" s="10"/>
       <c r="C10" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -2413,16 +2415,16 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" s="13"/>
       <c r="B11" s="10"/>
       <c r="C11" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -2436,10 +2438,10 @@
       <c r="A12" s="13"/>
       <c r="B12" s="10"/>
       <c r="C12" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -2452,12 +2454,24 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A13" s="13"/>
       <c r="B13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A14" s="13"/>
       <c r="B14" s="10"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.6">
@@ -2478,78 +2492,78 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A18" s="13"/>
       <c r="B18" s="10"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A19" s="13"/>
       <c r="B19" s="10"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A20" s="13"/>
       <c r="B20" s="10"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A21" s="13"/>
       <c r="B21" s="10"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A22" s="13"/>
       <c r="B22" s="10"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A23" s="13"/>
       <c r="B23" s="10"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A24" s="13"/>
       <c r="B24" s="10"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A25" s="13"/>
       <c r="B25" s="10"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A26" s="13"/>
       <c r="B26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A27" s="13"/>
       <c r="B27" s="10"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A28" s="13"/>
       <c r="B28" s="10"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A29" s="13"/>
       <c r="B29" s="10"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A30" s="13"/>
       <c r="B30" s="10"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="10"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A32" s="13"/>
       <c r="B32" s="10"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="13"/>
@@ -2574,32 +2588,32 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="13"/>
       <c r="B37" s="10"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="13"/>
       <c r="B38" s="10"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="13"/>
       <c r="B39" s="10"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="13"/>
       <c r="B40" s="10"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A41" s="13"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="10"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="H42" s="9"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A43" s="13"/>
@@ -2640,624 +2654,619 @@
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
+      <c r="I51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="D52" s="5"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
+      <c r="D53" s="5"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="H105" s="9"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="H106" s="9"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="H107" s="9"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="H108" s="9"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="H109" s="9"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A112" s="13"/>
@@ -3312,6 +3321,12 @@
     <row r="117" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A118" s="13"/>
@@ -3408,7 +3423,6 @@
     <row r="141" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
-      <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A142" s="13"/>
@@ -3478,6 +3492,7 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
+      <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A156" s="13"/>
@@ -3498,7 +3513,6 @@
     <row r="160" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
-      <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A161" s="13"/>
@@ -3813,11 +3827,11 @@
     <row r="223" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
+      <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
-      <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A225" s="13"/>
@@ -3833,876 +3847,876 @@
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="D227" s="5"/>
-      <c r="I227" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J227" s="12"/>
-      <c r="K227" s="12"/>
-      <c r="L227" s="12"/>
-      <c r="M227" s="12"/>
-      <c r="N227" s="12"/>
-      <c r="O227" s="12"/>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="D228" s="5"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="12"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
-      <c r="M228" s="12"/>
-      <c r="N228" s="12"/>
-      <c r="O228" s="12"/>
+      <c r="I228" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="14"/>
+      <c r="K228" s="14"/>
+      <c r="L228" s="14"/>
+      <c r="M228" s="14"/>
+      <c r="N228" s="14"/>
+      <c r="O228" s="14"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="D229" s="5"/>
-      <c r="I229" s="12"/>
-      <c r="J229" s="12"/>
-      <c r="K229" s="12"/>
-      <c r="L229" s="12"/>
-      <c r="M229" s="12"/>
-      <c r="N229" s="12"/>
-      <c r="O229" s="12"/>
+      <c r="I229" s="14"/>
+      <c r="J229" s="14"/>
+      <c r="K229" s="14"/>
+      <c r="L229" s="14"/>
+      <c r="M229" s="14"/>
+      <c r="N229" s="14"/>
+      <c r="O229" s="14"/>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="D230" s="5"/>
-      <c r="I230" s="12"/>
-      <c r="J230" s="12"/>
-      <c r="K230" s="12"/>
-      <c r="L230" s="12"/>
-      <c r="M230" s="12"/>
-      <c r="N230" s="12"/>
-      <c r="O230" s="12"/>
+      <c r="I230" s="14"/>
+      <c r="J230" s="14"/>
+      <c r="K230" s="14"/>
+      <c r="L230" s="14"/>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14"/>
+      <c r="O230" s="14"/>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="D231" s="5"/>
-      <c r="I231" s="12"/>
-      <c r="J231" s="12"/>
-      <c r="K231" s="12"/>
-      <c r="L231" s="12"/>
-      <c r="M231" s="12"/>
-      <c r="N231" s="12"/>
-      <c r="O231" s="12"/>
+      <c r="I231" s="14"/>
+      <c r="J231" s="14"/>
+      <c r="K231" s="14"/>
+      <c r="L231" s="14"/>
+      <c r="M231" s="14"/>
+      <c r="N231" s="14"/>
+      <c r="O231" s="14"/>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="D232" s="5"/>
-      <c r="I232" s="12"/>
-      <c r="J232" s="12"/>
-      <c r="K232" s="12"/>
-      <c r="L232" s="12"/>
-      <c r="M232" s="12"/>
-      <c r="N232" s="12"/>
-      <c r="O232" s="12"/>
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
+      <c r="K232" s="14"/>
+      <c r="L232" s="14"/>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="D233" s="5"/>
-      <c r="I233" s="12"/>
-      <c r="J233" s="12"/>
-      <c r="K233" s="12"/>
-      <c r="L233" s="12"/>
-      <c r="M233" s="12"/>
-      <c r="N233" s="12"/>
-      <c r="O233" s="12"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="14"/>
+      <c r="L233" s="14"/>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="D234" s="5"/>
-      <c r="I234" s="12"/>
-      <c r="J234" s="12"/>
-      <c r="K234" s="12"/>
-      <c r="L234" s="12"/>
-      <c r="M234" s="12"/>
-      <c r="N234" s="12"/>
-      <c r="O234" s="12"/>
+      <c r="I234" s="14"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="14"/>
+      <c r="L234" s="14"/>
+      <c r="M234" s="14"/>
+      <c r="N234" s="14"/>
+      <c r="O234" s="14"/>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="D235" s="5"/>
-      <c r="I235" s="12"/>
-      <c r="J235" s="12"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
-      <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
-      <c r="O235" s="12"/>
+      <c r="I235" s="14"/>
+      <c r="J235" s="14"/>
+      <c r="K235" s="14"/>
+      <c r="L235" s="14"/>
+      <c r="M235" s="14"/>
+      <c r="N235" s="14"/>
+      <c r="O235" s="14"/>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="D236" s="5"/>
-      <c r="I236" s="12"/>
-      <c r="J236" s="12"/>
-      <c r="K236" s="12"/>
-      <c r="L236" s="12"/>
-      <c r="M236" s="12"/>
-      <c r="N236" s="12"/>
-      <c r="O236" s="12"/>
+      <c r="I236" s="14"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="14"/>
+      <c r="N236" s="14"/>
+      <c r="O236" s="14"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="D237" s="5"/>
-      <c r="I237" s="12"/>
-      <c r="J237" s="12"/>
-      <c r="K237" s="12"/>
-      <c r="L237" s="12"/>
-      <c r="M237" s="12"/>
-      <c r="N237" s="12"/>
-      <c r="O237" s="12"/>
+      <c r="I237" s="14"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="14"/>
+      <c r="L237" s="14"/>
+      <c r="M237" s="14"/>
+      <c r="N237" s="14"/>
+      <c r="O237" s="14"/>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="D238" s="5"/>
-      <c r="I238" s="12"/>
-      <c r="J238" s="12"/>
-      <c r="K238" s="12"/>
-      <c r="L238" s="12"/>
-      <c r="M238" s="12"/>
-      <c r="N238" s="12"/>
-      <c r="O238" s="12"/>
+      <c r="I238" s="14"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+      <c r="L238" s="14"/>
+      <c r="M238" s="14"/>
+      <c r="N238" s="14"/>
+      <c r="O238" s="14"/>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="D239" s="5"/>
-      <c r="I239" s="12"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
-      <c r="M239" s="12"/>
-      <c r="N239" s="12"/>
-      <c r="O239" s="12"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="14"/>
+      <c r="M239" s="14"/>
+      <c r="N239" s="14"/>
+      <c r="O239" s="14"/>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="D240" s="5"/>
-      <c r="I240" s="12"/>
-      <c r="J240" s="12"/>
-      <c r="K240" s="12"/>
-      <c r="L240" s="12"/>
-      <c r="M240" s="12"/>
-      <c r="N240" s="12"/>
-      <c r="O240" s="12"/>
+      <c r="I240" s="14"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="14"/>
+      <c r="L240" s="14"/>
+      <c r="M240" s="14"/>
+      <c r="N240" s="14"/>
+      <c r="O240" s="14"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="D241" s="5"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="12"/>
-      <c r="M241" s="12"/>
-      <c r="N241" s="12"/>
-      <c r="O241" s="12"/>
+      <c r="I241" s="14"/>
+      <c r="J241" s="14"/>
+      <c r="K241" s="14"/>
+      <c r="L241" s="14"/>
+      <c r="M241" s="14"/>
+      <c r="N241" s="14"/>
+      <c r="O241" s="14"/>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="D242" s="5"/>
-      <c r="I242" s="12"/>
-      <c r="J242" s="12"/>
-      <c r="K242" s="12"/>
-      <c r="L242" s="12"/>
-      <c r="M242" s="12"/>
-      <c r="N242" s="12"/>
-      <c r="O242" s="12"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
+      <c r="M242" s="14"/>
+      <c r="N242" s="14"/>
+      <c r="O242" s="14"/>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="D243" s="5"/>
-      <c r="I243" s="12"/>
-      <c r="J243" s="12"/>
-      <c r="K243" s="12"/>
-      <c r="L243" s="12"/>
-      <c r="M243" s="12"/>
-      <c r="N243" s="12"/>
-      <c r="O243" s="12"/>
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="14"/>
+      <c r="L243" s="14"/>
+      <c r="M243" s="14"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="D244" s="5"/>
-      <c r="I244" s="12"/>
-      <c r="J244" s="12"/>
-      <c r="K244" s="12"/>
-      <c r="L244" s="12"/>
-      <c r="M244" s="12"/>
-      <c r="N244" s="12"/>
-      <c r="O244" s="12"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="14"/>
+      <c r="L244" s="14"/>
+      <c r="M244" s="14"/>
+      <c r="N244" s="14"/>
+      <c r="O244" s="14"/>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="D245" s="5"/>
-      <c r="I245" s="12"/>
-      <c r="J245" s="12"/>
-      <c r="K245" s="12"/>
-      <c r="L245" s="12"/>
-      <c r="M245" s="12"/>
-      <c r="N245" s="12"/>
-      <c r="O245" s="12"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="14"/>
+      <c r="M245" s="14"/>
+      <c r="N245" s="14"/>
+      <c r="O245" s="14"/>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="D246" s="5"/>
-      <c r="I246" s="12"/>
-      <c r="J246" s="12"/>
-      <c r="K246" s="12"/>
-      <c r="L246" s="12"/>
-      <c r="M246" s="12"/>
-      <c r="N246" s="12"/>
-      <c r="O246" s="12"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="14"/>
+      <c r="L246" s="14"/>
+      <c r="M246" s="14"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="14"/>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="D247" s="5"/>
-      <c r="I247" s="12"/>
-      <c r="J247" s="12"/>
-      <c r="K247" s="12"/>
-      <c r="L247" s="12"/>
-      <c r="M247" s="12"/>
-      <c r="N247" s="12"/>
-      <c r="O247" s="12"/>
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="14"/>
+      <c r="L247" s="14"/>
+      <c r="M247" s="14"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="14"/>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="D248" s="5"/>
-      <c r="I248" s="12"/>
-      <c r="J248" s="12"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
-      <c r="M248" s="12"/>
-      <c r="N248" s="12"/>
-      <c r="O248" s="12"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="14"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="14"/>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="D249" s="5"/>
-      <c r="I249" s="12"/>
-      <c r="J249" s="12"/>
-      <c r="K249" s="12"/>
-      <c r="L249" s="12"/>
-      <c r="M249" s="12"/>
-      <c r="N249" s="12"/>
-      <c r="O249" s="12"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="14"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="14"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="D250" s="5"/>
-      <c r="I250" s="12"/>
-      <c r="J250" s="12"/>
-      <c r="K250" s="12"/>
-      <c r="L250" s="12"/>
-      <c r="M250" s="12"/>
-      <c r="N250" s="12"/>
-      <c r="O250" s="12"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="14"/>
+      <c r="N250" s="14"/>
+      <c r="O250" s="14"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="D251" s="5"/>
-      <c r="I251" s="12"/>
-      <c r="J251" s="12"/>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
-      <c r="M251" s="12"/>
-      <c r="N251" s="12"/>
-      <c r="O251" s="12"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="14"/>
+      <c r="M251" s="14"/>
+      <c r="N251" s="14"/>
+      <c r="O251" s="14"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="D252" s="5"/>
-      <c r="I252" s="12"/>
-      <c r="J252" s="12"/>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
-      <c r="M252" s="12"/>
-      <c r="N252" s="12"/>
-      <c r="O252" s="12"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
+      <c r="L252" s="14"/>
+      <c r="M252" s="14"/>
+      <c r="N252" s="14"/>
+      <c r="O252" s="14"/>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="D253" s="5"/>
-      <c r="I253" s="12"/>
-      <c r="J253" s="12"/>
-      <c r="K253" s="12"/>
-      <c r="L253" s="12"/>
-      <c r="M253" s="12"/>
-      <c r="N253" s="12"/>
-      <c r="O253" s="12"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
+      <c r="K253" s="14"/>
+      <c r="L253" s="14"/>
+      <c r="M253" s="14"/>
+      <c r="N253" s="14"/>
+      <c r="O253" s="14"/>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="D254" s="5"/>
-      <c r="I254" s="12"/>
-      <c r="J254" s="12"/>
-      <c r="K254" s="12"/>
-      <c r="L254" s="12"/>
-      <c r="M254" s="12"/>
-      <c r="N254" s="12"/>
-      <c r="O254" s="12"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="14"/>
+      <c r="L254" s="14"/>
+      <c r="M254" s="14"/>
+      <c r="N254" s="14"/>
+      <c r="O254" s="14"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="D255" s="5"/>
-      <c r="I255" s="12"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="12"/>
-      <c r="M255" s="12"/>
-      <c r="N255" s="12"/>
-      <c r="O255" s="12"/>
+      <c r="I255" s="14"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="14"/>
+      <c r="L255" s="14"/>
+      <c r="M255" s="14"/>
+      <c r="N255" s="14"/>
+      <c r="O255" s="14"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="D256" s="5"/>
-      <c r="I256" s="12"/>
-      <c r="J256" s="12"/>
-      <c r="K256" s="12"/>
-      <c r="L256" s="12"/>
-      <c r="M256" s="12"/>
-      <c r="N256" s="12"/>
-      <c r="O256" s="12"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="14"/>
+      <c r="L256" s="14"/>
+      <c r="M256" s="14"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="14"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="D257" s="5"/>
-      <c r="I257" s="12"/>
-      <c r="J257" s="12"/>
-      <c r="K257" s="12"/>
-      <c r="L257" s="12"/>
-      <c r="M257" s="12"/>
-      <c r="N257" s="12"/>
-      <c r="O257" s="12"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="14"/>
+      <c r="L257" s="14"/>
+      <c r="M257" s="14"/>
+      <c r="N257" s="14"/>
+      <c r="O257" s="14"/>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="D258" s="5"/>
-      <c r="I258" s="12"/>
-      <c r="J258" s="12"/>
-      <c r="K258" s="12"/>
-      <c r="L258" s="12"/>
-      <c r="M258" s="12"/>
-      <c r="N258" s="12"/>
-      <c r="O258" s="12"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="14"/>
+      <c r="L258" s="14"/>
+      <c r="M258" s="14"/>
+      <c r="N258" s="14"/>
+      <c r="O258" s="14"/>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="D259" s="5"/>
-      <c r="I259" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J259" s="12"/>
-      <c r="K259" s="12"/>
-      <c r="L259" s="12"/>
-      <c r="M259" s="12"/>
-      <c r="N259" s="12"/>
-      <c r="O259" s="12"/>
+      <c r="I259" s="14"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="14"/>
+      <c r="L259" s="14"/>
+      <c r="M259" s="14"/>
+      <c r="N259" s="14"/>
+      <c r="O259" s="14"/>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="D260" s="5"/>
-      <c r="I260" s="12"/>
-      <c r="J260" s="12"/>
-      <c r="K260" s="12"/>
-      <c r="L260" s="12"/>
-      <c r="M260" s="12"/>
-      <c r="N260" s="12"/>
-      <c r="O260" s="12"/>
+      <c r="I260" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J260" s="14"/>
+      <c r="K260" s="14"/>
+      <c r="L260" s="14"/>
+      <c r="M260" s="14"/>
+      <c r="N260" s="14"/>
+      <c r="O260" s="14"/>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="D261" s="5"/>
-      <c r="I261" s="12"/>
-      <c r="J261" s="12"/>
-      <c r="K261" s="12"/>
-      <c r="L261" s="12"/>
-      <c r="M261" s="12"/>
-      <c r="N261" s="12"/>
-      <c r="O261" s="12"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="14"/>
+      <c r="L261" s="14"/>
+      <c r="M261" s="14"/>
+      <c r="N261" s="14"/>
+      <c r="O261" s="14"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="D262" s="5"/>
-      <c r="I262" s="12"/>
-      <c r="J262" s="12"/>
-      <c r="K262" s="12"/>
-      <c r="L262" s="12"/>
-      <c r="M262" s="12"/>
-      <c r="N262" s="12"/>
-      <c r="O262" s="12"/>
+      <c r="I262" s="14"/>
+      <c r="J262" s="14"/>
+      <c r="K262" s="14"/>
+      <c r="L262" s="14"/>
+      <c r="M262" s="14"/>
+      <c r="N262" s="14"/>
+      <c r="O262" s="14"/>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="D263" s="5"/>
-      <c r="I263" s="12"/>
-      <c r="J263" s="12"/>
-      <c r="K263" s="12"/>
-      <c r="L263" s="12"/>
-      <c r="M263" s="12"/>
-      <c r="N263" s="12"/>
-      <c r="O263" s="12"/>
+      <c r="I263" s="14"/>
+      <c r="J263" s="14"/>
+      <c r="K263" s="14"/>
+      <c r="L263" s="14"/>
+      <c r="M263" s="14"/>
+      <c r="N263" s="14"/>
+      <c r="O263" s="14"/>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="D264" s="5"/>
-      <c r="I264" s="12"/>
-      <c r="J264" s="12"/>
-      <c r="K264" s="12"/>
-      <c r="L264" s="12"/>
-      <c r="M264" s="12"/>
-      <c r="N264" s="12"/>
-      <c r="O264" s="12"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="14"/>
+      <c r="L264" s="14"/>
+      <c r="M264" s="14"/>
+      <c r="N264" s="14"/>
+      <c r="O264" s="14"/>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="D265" s="5"/>
-      <c r="I265" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J265" s="12"/>
-      <c r="K265" s="12"/>
-      <c r="L265" s="12"/>
-      <c r="M265" s="12"/>
-      <c r="N265" s="12"/>
-      <c r="O265" s="12"/>
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
+      <c r="K265" s="14"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="14"/>
+      <c r="N265" s="14"/>
+      <c r="O265" s="14"/>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="D266" s="5"/>
-      <c r="I266" s="12"/>
-      <c r="J266" s="12"/>
-      <c r="K266" s="12"/>
-      <c r="L266" s="12"/>
-      <c r="M266" s="12"/>
-      <c r="N266" s="12"/>
-      <c r="O266" s="12"/>
+      <c r="I266" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J266" s="14"/>
+      <c r="K266" s="14"/>
+      <c r="L266" s="14"/>
+      <c r="M266" s="14"/>
+      <c r="N266" s="14"/>
+      <c r="O266" s="14"/>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="D267" s="5"/>
-      <c r="I267" s="12"/>
-      <c r="J267" s="12"/>
-      <c r="K267" s="12"/>
-      <c r="L267" s="12"/>
-      <c r="M267" s="12"/>
-      <c r="N267" s="12"/>
-      <c r="O267" s="12"/>
+      <c r="I267" s="14"/>
+      <c r="J267" s="14"/>
+      <c r="K267" s="14"/>
+      <c r="L267" s="14"/>
+      <c r="M267" s="14"/>
+      <c r="N267" s="14"/>
+      <c r="O267" s="14"/>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="D268" s="5"/>
-      <c r="I268" s="12"/>
-      <c r="J268" s="12"/>
-      <c r="K268" s="12"/>
-      <c r="L268" s="12"/>
-      <c r="M268" s="12"/>
-      <c r="N268" s="12"/>
-      <c r="O268" s="12"/>
+      <c r="I268" s="14"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="14"/>
+      <c r="L268" s="14"/>
+      <c r="M268" s="14"/>
+      <c r="N268" s="14"/>
+      <c r="O268" s="14"/>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="D269" s="5"/>
-      <c r="I269" s="12"/>
-      <c r="J269" s="12"/>
-      <c r="K269" s="12"/>
-      <c r="L269" s="12"/>
-      <c r="M269" s="12"/>
-      <c r="N269" s="12"/>
-      <c r="O269" s="12"/>
+      <c r="I269" s="14"/>
+      <c r="J269" s="14"/>
+      <c r="K269" s="14"/>
+      <c r="L269" s="14"/>
+      <c r="M269" s="14"/>
+      <c r="N269" s="14"/>
+      <c r="O269" s="14"/>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="D270" s="5"/>
-      <c r="I270" s="12"/>
-      <c r="J270" s="12"/>
-      <c r="K270" s="12"/>
-      <c r="L270" s="12"/>
-      <c r="M270" s="12"/>
-      <c r="N270" s="12"/>
-      <c r="O270" s="12"/>
+      <c r="I270" s="14"/>
+      <c r="J270" s="14"/>
+      <c r="K270" s="14"/>
+      <c r="L270" s="14"/>
+      <c r="M270" s="14"/>
+      <c r="N270" s="14"/>
+      <c r="O270" s="14"/>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="D271" s="5"/>
-      <c r="I271" s="12"/>
-      <c r="J271" s="12"/>
-      <c r="K271" s="12"/>
-      <c r="L271" s="12"/>
-      <c r="M271" s="12"/>
-      <c r="N271" s="12"/>
-      <c r="O271" s="12"/>
+      <c r="I271" s="14"/>
+      <c r="J271" s="14"/>
+      <c r="K271" s="14"/>
+      <c r="L271" s="14"/>
+      <c r="M271" s="14"/>
+      <c r="N271" s="14"/>
+      <c r="O271" s="14"/>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="D272" s="5"/>
-      <c r="I272" s="12"/>
-      <c r="J272" s="12"/>
-      <c r="K272" s="12"/>
-      <c r="L272" s="12"/>
-      <c r="M272" s="12"/>
-      <c r="N272" s="12"/>
-      <c r="O272" s="12"/>
+      <c r="I272" s="14"/>
+      <c r="J272" s="14"/>
+      <c r="K272" s="14"/>
+      <c r="L272" s="14"/>
+      <c r="M272" s="14"/>
+      <c r="N272" s="14"/>
+      <c r="O272" s="14"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="D273" s="5"/>
-      <c r="I273" s="12"/>
-      <c r="J273" s="12"/>
-      <c r="K273" s="12"/>
-      <c r="L273" s="12"/>
-      <c r="M273" s="12"/>
-      <c r="N273" s="12"/>
-      <c r="O273" s="12"/>
+      <c r="I273" s="14"/>
+      <c r="J273" s="14"/>
+      <c r="K273" s="14"/>
+      <c r="L273" s="14"/>
+      <c r="M273" s="14"/>
+      <c r="N273" s="14"/>
+      <c r="O273" s="14"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="D274" s="5"/>
-      <c r="I274" s="12"/>
-      <c r="J274" s="12"/>
-      <c r="K274" s="12"/>
-      <c r="L274" s="12"/>
-      <c r="M274" s="12"/>
-      <c r="N274" s="12"/>
-      <c r="O274" s="12"/>
+      <c r="I274" s="14"/>
+      <c r="J274" s="14"/>
+      <c r="K274" s="14"/>
+      <c r="L274" s="14"/>
+      <c r="M274" s="14"/>
+      <c r="N274" s="14"/>
+      <c r="O274" s="14"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="D275" s="5"/>
-      <c r="I275" s="12"/>
-      <c r="J275" s="12"/>
-      <c r="K275" s="12"/>
-      <c r="L275" s="12"/>
-      <c r="M275" s="12"/>
-      <c r="N275" s="12"/>
-      <c r="O275" s="12"/>
+      <c r="I275" s="14"/>
+      <c r="J275" s="14"/>
+      <c r="K275" s="14"/>
+      <c r="L275" s="14"/>
+      <c r="M275" s="14"/>
+      <c r="N275" s="14"/>
+      <c r="O275" s="14"/>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="D276" s="5"/>
-      <c r="I276" s="12"/>
-      <c r="J276" s="12"/>
-      <c r="K276" s="12"/>
-      <c r="L276" s="12"/>
-      <c r="M276" s="12"/>
-      <c r="N276" s="12"/>
-      <c r="O276" s="12"/>
+      <c r="I276" s="14"/>
+      <c r="J276" s="14"/>
+      <c r="K276" s="14"/>
+      <c r="L276" s="14"/>
+      <c r="M276" s="14"/>
+      <c r="N276" s="14"/>
+      <c r="O276" s="14"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="D277" s="5"/>
-      <c r="I277" s="12"/>
-      <c r="J277" s="12"/>
-      <c r="K277" s="12"/>
-      <c r="L277" s="12"/>
-      <c r="M277" s="12"/>
-      <c r="N277" s="12"/>
-      <c r="O277" s="12"/>
+      <c r="I277" s="14"/>
+      <c r="J277" s="14"/>
+      <c r="K277" s="14"/>
+      <c r="L277" s="14"/>
+      <c r="M277" s="14"/>
+      <c r="N277" s="14"/>
+      <c r="O277" s="14"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="D278" s="5"/>
-      <c r="I278" s="12"/>
-      <c r="J278" s="12"/>
-      <c r="K278" s="12"/>
-      <c r="L278" s="12"/>
-      <c r="M278" s="12"/>
-      <c r="N278" s="12"/>
-      <c r="O278" s="12"/>
+      <c r="I278" s="14"/>
+      <c r="J278" s="14"/>
+      <c r="K278" s="14"/>
+      <c r="L278" s="14"/>
+      <c r="M278" s="14"/>
+      <c r="N278" s="14"/>
+      <c r="O278" s="14"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="D279" s="5"/>
-      <c r="I279" s="12"/>
-      <c r="J279" s="12"/>
-      <c r="K279" s="12"/>
-      <c r="L279" s="12"/>
-      <c r="M279" s="12"/>
-      <c r="N279" s="12"/>
-      <c r="O279" s="12"/>
+      <c r="I279" s="14"/>
+      <c r="J279" s="14"/>
+      <c r="K279" s="14"/>
+      <c r="L279" s="14"/>
+      <c r="M279" s="14"/>
+      <c r="N279" s="14"/>
+      <c r="O279" s="14"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="D280" s="5"/>
-      <c r="I280" s="12"/>
-      <c r="J280" s="12"/>
-      <c r="K280" s="12"/>
-      <c r="L280" s="12"/>
-      <c r="M280" s="12"/>
-      <c r="N280" s="12"/>
-      <c r="O280" s="12"/>
+      <c r="I280" s="14"/>
+      <c r="J280" s="14"/>
+      <c r="K280" s="14"/>
+      <c r="L280" s="14"/>
+      <c r="M280" s="14"/>
+      <c r="N280" s="14"/>
+      <c r="O280" s="14"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="D281" s="5"/>
-      <c r="I281" s="12"/>
-      <c r="J281" s="12"/>
-      <c r="K281" s="12"/>
-      <c r="L281" s="12"/>
-      <c r="M281" s="12"/>
-      <c r="N281" s="12"/>
-      <c r="O281" s="12"/>
+      <c r="I281" s="14"/>
+      <c r="J281" s="14"/>
+      <c r="K281" s="14"/>
+      <c r="L281" s="14"/>
+      <c r="M281" s="14"/>
+      <c r="N281" s="14"/>
+      <c r="O281" s="14"/>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="D282" s="5"/>
-      <c r="I282" s="12"/>
-      <c r="J282" s="12"/>
-      <c r="K282" s="12"/>
-      <c r="L282" s="12"/>
-      <c r="M282" s="12"/>
-      <c r="N282" s="12"/>
-      <c r="O282" s="12"/>
+      <c r="I282" s="14"/>
+      <c r="J282" s="14"/>
+      <c r="K282" s="14"/>
+      <c r="L282" s="14"/>
+      <c r="M282" s="14"/>
+      <c r="N282" s="14"/>
+      <c r="O282" s="14"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="D283" s="5"/>
-      <c r="I283" s="12"/>
-      <c r="J283" s="12"/>
-      <c r="K283" s="12"/>
-      <c r="L283" s="12"/>
-      <c r="M283" s="12"/>
-      <c r="N283" s="12"/>
-      <c r="O283" s="12"/>
+      <c r="I283" s="14"/>
+      <c r="J283" s="14"/>
+      <c r="K283" s="14"/>
+      <c r="L283" s="14"/>
+      <c r="M283" s="14"/>
+      <c r="N283" s="14"/>
+      <c r="O283" s="14"/>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="D284" s="5"/>
-      <c r="I284" s="12"/>
-      <c r="J284" s="12"/>
-      <c r="K284" s="12"/>
-      <c r="L284" s="12"/>
-      <c r="M284" s="12"/>
-      <c r="N284" s="12"/>
-      <c r="O284" s="12"/>
+      <c r="I284" s="14"/>
+      <c r="J284" s="14"/>
+      <c r="K284" s="14"/>
+      <c r="L284" s="14"/>
+      <c r="M284" s="14"/>
+      <c r="N284" s="14"/>
+      <c r="O284" s="14"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="D285" s="5"/>
-      <c r="I285" s="12"/>
-      <c r="J285" s="12"/>
-      <c r="K285" s="12"/>
-      <c r="L285" s="12"/>
-      <c r="M285" s="12"/>
-      <c r="N285" s="12"/>
-      <c r="O285" s="12"/>
+      <c r="I285" s="14"/>
+      <c r="J285" s="14"/>
+      <c r="K285" s="14"/>
+      <c r="L285" s="14"/>
+      <c r="M285" s="14"/>
+      <c r="N285" s="14"/>
+      <c r="O285" s="14"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="D286" s="5"/>
-      <c r="I286" s="12"/>
-      <c r="J286" s="12"/>
-      <c r="K286" s="12"/>
-      <c r="L286" s="12"/>
-      <c r="M286" s="12"/>
-      <c r="N286" s="12"/>
-      <c r="O286" s="12"/>
+      <c r="I286" s="14"/>
+      <c r="J286" s="14"/>
+      <c r="K286" s="14"/>
+      <c r="L286" s="14"/>
+      <c r="M286" s="14"/>
+      <c r="N286" s="14"/>
+      <c r="O286" s="14"/>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="D287" s="5"/>
-      <c r="I287" s="12"/>
-      <c r="J287" s="12"/>
-      <c r="K287" s="12"/>
-      <c r="L287" s="12"/>
-      <c r="M287" s="12"/>
-      <c r="N287" s="12"/>
-      <c r="O287" s="12"/>
+      <c r="I287" s="14"/>
+      <c r="J287" s="14"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
+      <c r="M287" s="14"/>
+      <c r="N287" s="14"/>
+      <c r="O287" s="14"/>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="D288" s="5"/>
-      <c r="I288" s="12"/>
-      <c r="J288" s="12"/>
-      <c r="K288" s="12"/>
-      <c r="L288" s="12"/>
-      <c r="M288" s="12"/>
-      <c r="N288" s="12"/>
-      <c r="O288" s="12"/>
+      <c r="I288" s="14"/>
+      <c r="J288" s="14"/>
+      <c r="K288" s="14"/>
+      <c r="L288" s="14"/>
+      <c r="M288" s="14"/>
+      <c r="N288" s="14"/>
+      <c r="O288" s="14"/>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="D289" s="5"/>
-      <c r="I289" s="12"/>
-      <c r="J289" s="12"/>
-      <c r="K289" s="12"/>
-      <c r="L289" s="12"/>
-      <c r="M289" s="12"/>
-      <c r="N289" s="12"/>
-      <c r="O289" s="12"/>
+      <c r="I289" s="14"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="14"/>
+      <c r="L289" s="14"/>
+      <c r="M289" s="14"/>
+      <c r="N289" s="14"/>
+      <c r="O289" s="14"/>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="D290" s="5"/>
-      <c r="I290" s="12"/>
-      <c r="J290" s="12"/>
-      <c r="K290" s="12"/>
-      <c r="L290" s="12"/>
-      <c r="M290" s="12"/>
-      <c r="N290" s="12"/>
-      <c r="O290" s="12"/>
+      <c r="I290" s="14"/>
+      <c r="J290" s="14"/>
+      <c r="K290" s="14"/>
+      <c r="L290" s="14"/>
+      <c r="M290" s="14"/>
+      <c r="N290" s="14"/>
+      <c r="O290" s="14"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="D291" s="5"/>
-      <c r="I291" s="12"/>
-      <c r="J291" s="12"/>
-      <c r="K291" s="12"/>
-      <c r="L291" s="12"/>
-      <c r="M291" s="12"/>
-      <c r="N291" s="12"/>
-      <c r="O291" s="12"/>
+      <c r="I291" s="14"/>
+      <c r="J291" s="14"/>
+      <c r="K291" s="14"/>
+      <c r="L291" s="14"/>
+      <c r="M291" s="14"/>
+      <c r="N291" s="14"/>
+      <c r="O291" s="14"/>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="D292" s="5"/>
-      <c r="I292" s="12"/>
-      <c r="J292" s="12"/>
-      <c r="K292" s="12"/>
-      <c r="L292" s="12"/>
-      <c r="M292" s="12"/>
-      <c r="N292" s="12"/>
-      <c r="O292" s="12"/>
+      <c r="I292" s="14"/>
+      <c r="J292" s="14"/>
+      <c r="K292" s="14"/>
+      <c r="L292" s="14"/>
+      <c r="M292" s="14"/>
+      <c r="N292" s="14"/>
+      <c r="O292" s="14"/>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="D293" s="5"/>
-      <c r="I293" s="12"/>
-      <c r="J293" s="12"/>
-      <c r="K293" s="12"/>
-      <c r="L293" s="12"/>
-      <c r="M293" s="12"/>
-      <c r="N293" s="12"/>
-      <c r="O293" s="12"/>
+      <c r="I293" s="14"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="14"/>
+      <c r="L293" s="14"/>
+      <c r="M293" s="14"/>
+      <c r="N293" s="14"/>
+      <c r="O293" s="14"/>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="D294" s="5"/>
-      <c r="I294" s="12"/>
-      <c r="J294" s="12"/>
-      <c r="K294" s="12"/>
-      <c r="L294" s="12"/>
-      <c r="M294" s="12"/>
-      <c r="N294" s="12"/>
-      <c r="O294" s="12"/>
+      <c r="I294" s="14"/>
+      <c r="J294" s="14"/>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
+      <c r="M294" s="14"/>
+      <c r="N294" s="14"/>
+      <c r="O294" s="14"/>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="D295" s="5"/>
-      <c r="I295" s="12"/>
-      <c r="J295" s="12"/>
-      <c r="K295" s="12"/>
-      <c r="L295" s="12"/>
-      <c r="M295" s="12"/>
-      <c r="N295" s="12"/>
-      <c r="O295" s="12"/>
+      <c r="I295" s="14"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
+      <c r="M295" s="14"/>
+      <c r="N295" s="14"/>
+      <c r="O295" s="14"/>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="D296" s="5"/>
-      <c r="I296" s="12"/>
-      <c r="J296" s="12"/>
-      <c r="K296" s="12"/>
-      <c r="L296" s="12"/>
-      <c r="M296" s="12"/>
-      <c r="N296" s="12"/>
-      <c r="O296" s="12"/>
+      <c r="I296" s="14"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="14"/>
+      <c r="L296" s="14"/>
+      <c r="M296" s="14"/>
+      <c r="N296" s="14"/>
+      <c r="O296" s="14"/>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="D297" s="5"/>
-      <c r="I297" s="12"/>
-      <c r="J297" s="12"/>
-      <c r="K297" s="12"/>
-      <c r="L297" s="12"/>
-      <c r="M297" s="12"/>
-      <c r="N297" s="12"/>
-      <c r="O297" s="12"/>
+      <c r="I297" s="14"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="14"/>
+      <c r="L297" s="14"/>
+      <c r="M297" s="14"/>
+      <c r="N297" s="14"/>
+      <c r="O297" s="14"/>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="D298" s="5"/>
-      <c r="I298" s="12"/>
-      <c r="J298" s="12"/>
-      <c r="K298" s="12"/>
-      <c r="L298" s="12"/>
-      <c r="M298" s="12"/>
-      <c r="N298" s="12"/>
-      <c r="O298" s="12"/>
+      <c r="I298" s="14"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="14"/>
+      <c r="L298" s="14"/>
+      <c r="M298" s="14"/>
+      <c r="N298" s="14"/>
+      <c r="O298" s="14"/>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="D299" s="5"/>
+      <c r="I299" s="14"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="14"/>
+      <c r="L299" s="14"/>
+      <c r="M299" s="14"/>
+      <c r="N299" s="14"/>
+      <c r="O299" s="14"/>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A300" s="13"/>
@@ -5339,7 +5353,7 @@
       <c r="B426" s="13"/>
       <c r="D426" s="5"/>
     </row>
-    <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="D427" s="5"/>
@@ -5547,11 +5561,11 @@
     <row r="468" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
+      <c r="D468" s="5"/>
     </row>
     <row r="469" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
-      <c r="D469" s="5"/>
     </row>
     <row r="470" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A470" s="13"/>
@@ -5601,11 +5615,11 @@
     <row r="479" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
+      <c r="D479" s="5"/>
     </row>
     <row r="480" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
-      <c r="D480" s="5"/>
     </row>
     <row r="481" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A481" s="13"/>
@@ -5660,6 +5674,7 @@
     <row r="491" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
+      <c r="D491" s="5"/>
     </row>
     <row r="492" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A492" s="13"/>
@@ -5863,12 +5878,12 @@
     </row>
     <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A542" s="13"/>
-      <c r="B542" s="10"/>
-      <c r="G542" s="11"/>
+      <c r="B542" s="13"/>
     </row>
     <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A543" s="13"/>
       <c r="B543" s="10"/>
+      <c r="G543" s="11"/>
     </row>
     <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A544" s="13"/>
@@ -6012,7 +6027,7 @@
     </row>
     <row r="579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A579" s="13"/>
-      <c r="B579" s="13"/>
+      <c r="B579" s="10"/>
     </row>
     <row r="580" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A580" s="13"/>
@@ -6028,10 +6043,10 @@
     </row>
     <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A583" s="13"/>
+      <c r="B583" s="13"/>
     </row>
     <row r="584" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A584" s="13"/>
-      <c r="B584" s="13"/>
     </row>
     <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A585" s="13"/>
@@ -6055,10 +6070,10 @@
     </row>
     <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A590" s="13"/>
+      <c r="B590" s="13"/>
     </row>
     <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A591" s="13"/>
-      <c r="B591" s="13"/>
     </row>
     <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A592" s="13"/>
@@ -6374,63 +6389,63 @@
     </row>
     <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A670" s="13"/>
-      <c r="B670" s="15"/>
+      <c r="B670" s="13"/>
     </row>
     <row r="671" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A671" s="13"/>
-      <c r="B671" s="15"/>
+      <c r="B671" s="12"/>
     </row>
     <row r="672" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A672" s="13"/>
-      <c r="B672" s="15"/>
+      <c r="B672" s="12"/>
     </row>
     <row r="673" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A673" s="13"/>
-      <c r="B673" s="15"/>
+      <c r="B673" s="12"/>
     </row>
     <row r="674" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A674" s="13"/>
-      <c r="B674" s="15"/>
+      <c r="B674" s="12"/>
     </row>
     <row r="675" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A675" s="13"/>
-      <c r="B675" s="15"/>
+      <c r="B675" s="12"/>
     </row>
     <row r="676" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A676" s="13"/>
-      <c r="B676" s="15"/>
+      <c r="B676" s="12"/>
     </row>
     <row r="677" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A677" s="13"/>
-      <c r="B677" s="15"/>
+      <c r="B677" s="12"/>
     </row>
     <row r="678" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A678" s="13"/>
-      <c r="B678" s="15"/>
+      <c r="B678" s="12"/>
     </row>
     <row r="679" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A679" s="13"/>
-      <c r="B679" s="15"/>
+      <c r="B679" s="12"/>
     </row>
     <row r="680" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A680" s="13"/>
-      <c r="B680" s="15"/>
+      <c r="B680" s="12"/>
     </row>
     <row r="681" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A681" s="13"/>
-      <c r="B681" s="15"/>
+      <c r="B681" s="12"/>
     </row>
     <row r="682" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A682" s="13"/>
-      <c r="B682" s="15"/>
+      <c r="B682" s="12"/>
     </row>
     <row r="683" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A683" s="13"/>
-      <c r="B683" s="15"/>
+      <c r="B683" s="12"/>
     </row>
     <row r="684" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A684" s="13"/>
-      <c r="B684" s="13"/>
+      <c r="B684" s="12"/>
     </row>
     <row r="685" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A685" s="13"/>
@@ -6506,10 +6521,10 @@
     </row>
     <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A703" s="13"/>
+      <c r="B703" s="13"/>
     </row>
     <row r="704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A704" s="13"/>
-      <c r="B704" s="13"/>
     </row>
     <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A705" s="13"/>
@@ -6533,14 +6548,14 @@
     </row>
     <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A710" s="13"/>
+      <c r="B710" s="13"/>
     </row>
     <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A711" s="13"/>
-      <c r="B711" s="15"/>
     </row>
     <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A712" s="13"/>
-      <c r="B712" s="13"/>
+      <c r="B712" s="12"/>
     </row>
     <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A713" s="13"/>
@@ -6556,11 +6571,11 @@
     </row>
     <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A716" s="13"/>
-      <c r="B716" s="15"/>
+      <c r="B716" s="13"/>
     </row>
     <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A717" s="13"/>
-      <c r="B717" s="13"/>
+      <c r="B717" s="12"/>
     </row>
     <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A718" s="13"/>
@@ -6574,38 +6589,38 @@
       <c r="A720" s="13"/>
       <c r="B720" s="13"/>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="721" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A721" s="13"/>
-      <c r="B721" s="15"/>
-      <c r="H721" s="12" t="s">
+      <c r="B721" s="13"/>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A722" s="13"/>
+      <c r="B722" s="12"/>
+      <c r="H722" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A722" s="13"/>
-      <c r="B722" s="15"/>
-      <c r="H722" s="12"/>
-    </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A723" s="13"/>
-      <c r="B723" s="15"/>
-      <c r="H723" s="12"/>
+      <c r="B723" s="12"/>
+      <c r="H723" s="14"/>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A724" s="13"/>
-      <c r="B724" s="15"/>
+      <c r="B724" s="12"/>
+      <c r="H724" s="14"/>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A725" s="13"/>
-      <c r="B725" s="15"/>
+      <c r="B725" s="12"/>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A726" s="13"/>
-      <c r="B726" s="15"/>
+      <c r="B726" s="12"/>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A727" s="13"/>
-      <c r="B727" s="6"/>
+      <c r="B727" s="12"/>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A728" s="13"/>
@@ -6613,7 +6628,7 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A729" s="13"/>
-      <c r="B729" s="13"/>
+      <c r="B729" s="6"/>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A730" s="13"/>
@@ -6797,16 +6812,16 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A775" s="13"/>
-      <c r="B775" s="15"/>
+      <c r="B775" s="13"/>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A776" s="13"/>
-      <c r="B776" s="13"/>
-      <c r="K776" s="2"/>
+      <c r="B776" s="12"/>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A777" s="13"/>
       <c r="B777" s="13"/>
+      <c r="K777" s="2"/>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A778" s="13"/>
@@ -6927,7 +6942,6 @@
     <row r="807" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A807" s="13"/>
       <c r="B807" s="13"/>
-      <c r="K807" s="2"/>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A808" s="13"/>
@@ -6946,12 +6960,12 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A811" s="13"/>
-      <c r="B811" s="15"/>
+      <c r="B811" s="13"/>
       <c r="K811" s="2"/>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A812" s="13"/>
-      <c r="B812" s="13"/>
+      <c r="B812" s="12"/>
       <c r="K812" s="2"/>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.6">
@@ -6971,676 +6985,677 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A816" s="13"/>
-      <c r="B816" s="15"/>
+      <c r="B816" s="13"/>
       <c r="K816" s="2"/>
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A817" s="13"/>
-      <c r="B817" s="15"/>
+      <c r="B817" s="12"/>
       <c r="K817" s="2"/>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A818" s="13"/>
-      <c r="B818" s="15"/>
+      <c r="B818" s="12"/>
       <c r="K818" s="2"/>
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A819" s="13"/>
-      <c r="B819" s="15"/>
+      <c r="B819" s="12"/>
       <c r="K819" s="2"/>
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A820" s="13"/>
-      <c r="B820" s="15"/>
+      <c r="B820" s="12"/>
       <c r="K820" s="2"/>
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A821" s="13"/>
-      <c r="B821" s="15"/>
+      <c r="B821" s="12"/>
       <c r="K821" s="2"/>
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A822" s="13"/>
-      <c r="B822" s="15"/>
+      <c r="B822" s="12"/>
       <c r="K822" s="2"/>
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A823" s="13"/>
-      <c r="B823" s="15"/>
+      <c r="B823" s="12"/>
       <c r="K823" s="2"/>
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A824" s="13"/>
-      <c r="B824" s="15"/>
+      <c r="B824" s="12"/>
       <c r="K824" s="2"/>
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A825" s="13"/>
-      <c r="B825" s="15"/>
+      <c r="B825" s="12"/>
       <c r="K825" s="2"/>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A826" s="13"/>
-      <c r="B826" s="15"/>
+      <c r="B826" s="12"/>
       <c r="K826" s="2"/>
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A827" s="13"/>
-      <c r="B827" s="15"/>
+      <c r="B827" s="12"/>
       <c r="K827" s="2"/>
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A828" s="13"/>
-      <c r="B828" s="15"/>
+      <c r="B828" s="12"/>
       <c r="K828" s="2"/>
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A829" s="13"/>
-      <c r="B829" s="15"/>
+      <c r="B829" s="12"/>
       <c r="K829" s="2"/>
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A830" s="13"/>
-      <c r="B830" s="15"/>
+      <c r="B830" s="12"/>
       <c r="K830" s="2"/>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A831" s="13"/>
-      <c r="B831" s="15"/>
+      <c r="B831" s="12"/>
+      <c r="K831" s="2"/>
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A832" s="13"/>
-      <c r="B832" s="15"/>
+      <c r="B832" s="12"/>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A833" s="13"/>
-      <c r="B833" s="15"/>
+      <c r="B833" s="12"/>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A834" s="13"/>
-      <c r="B834" s="15"/>
+      <c r="B834" s="12"/>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A835" s="13"/>
-      <c r="B835" s="15"/>
-      <c r="D835" s="3"/>
+      <c r="B835" s="12"/>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A836" s="13"/>
-      <c r="B836" s="15"/>
+      <c r="B836" s="12"/>
       <c r="D836" s="3"/>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A837" s="13"/>
-      <c r="B837" s="15"/>
+      <c r="B837" s="12"/>
       <c r="D837" s="3"/>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A838" s="13"/>
-      <c r="B838" s="15"/>
+      <c r="B838" s="12"/>
       <c r="D838" s="3"/>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A839" s="13"/>
-      <c r="B839" s="15"/>
+      <c r="B839" s="12"/>
       <c r="D839" s="3"/>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A840" s="13"/>
-      <c r="B840" s="15"/>
+      <c r="B840" s="12"/>
       <c r="D840" s="3"/>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A841" s="13"/>
-      <c r="B841" s="15"/>
+      <c r="B841" s="12"/>
       <c r="D841" s="3"/>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A842" s="13"/>
-      <c r="B842" s="15"/>
+      <c r="B842" s="12"/>
+      <c r="D842" s="3"/>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A843" s="13"/>
-      <c r="B843" s="15"/>
+      <c r="B843" s="12"/>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A844" s="13"/>
-      <c r="B844" s="15"/>
+      <c r="B844" s="12"/>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A845" s="13"/>
-      <c r="B845" s="15"/>
+      <c r="B845" s="12"/>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A846" s="13"/>
-      <c r="B846" s="15"/>
+      <c r="B846" s="12"/>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A847" s="13"/>
-      <c r="B847" s="15"/>
+      <c r="B847" s="12"/>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A848" s="13"/>
-      <c r="B848" s="15"/>
+      <c r="B848" s="12"/>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A849" s="13"/>
-      <c r="B849" s="15"/>
+      <c r="B849" s="12"/>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A850" s="13"/>
-      <c r="B850" s="15"/>
+      <c r="B850" s="12"/>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A851" s="13"/>
-      <c r="B851" s="15"/>
+      <c r="B851" s="12"/>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A852" s="13"/>
-      <c r="B852" s="15"/>
+      <c r="B852" s="12"/>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A853" s="13"/>
-      <c r="B853" s="15"/>
-      <c r="H853" s="2"/>
+      <c r="B853" s="12"/>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A854" s="13"/>
-      <c r="B854" s="15"/>
+      <c r="B854" s="12"/>
       <c r="H854" s="2"/>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A855" s="13"/>
-      <c r="B855" s="15"/>
+      <c r="B855" s="12"/>
       <c r="H855" s="2"/>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A856" s="13"/>
-      <c r="B856" s="15"/>
+      <c r="B856" s="12"/>
       <c r="H856" s="2"/>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A857" s="13"/>
-      <c r="B857" s="15"/>
+      <c r="B857" s="12"/>
       <c r="H857" s="2"/>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A858" s="13"/>
-      <c r="B858" s="15"/>
+      <c r="B858" s="12"/>
       <c r="H858" s="2"/>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A859" s="13"/>
-      <c r="B859" s="15"/>
+      <c r="B859" s="12"/>
       <c r="H859" s="2"/>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A860" s="13"/>
-      <c r="B860" s="15"/>
+      <c r="B860" s="12"/>
       <c r="H860" s="2"/>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A861" s="13"/>
-      <c r="B861" s="15"/>
+      <c r="B861" s="12"/>
       <c r="H861" s="2"/>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A862" s="13"/>
-      <c r="B862" s="15"/>
+      <c r="B862" s="12"/>
       <c r="H862" s="2"/>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A863" s="13"/>
-      <c r="B863" s="15"/>
+      <c r="B863" s="12"/>
       <c r="H863" s="2"/>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A864" s="13"/>
-      <c r="B864" s="15"/>
+      <c r="B864" s="12"/>
       <c r="H864" s="2"/>
     </row>
-    <row r="865" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A865" s="13"/>
-      <c r="B865" s="15"/>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B865" s="12"/>
+      <c r="H865" s="2"/>
+    </row>
+    <row r="866" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A866" s="13"/>
-      <c r="B866" s="15"/>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B866" s="12"/>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A867" s="13"/>
-      <c r="B867" s="15"/>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B867" s="12"/>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A868" s="13"/>
-      <c r="B868" s="15"/>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B868" s="12"/>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A869" s="13"/>
-      <c r="B869" s="15"/>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B869" s="12"/>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A870" s="13"/>
-      <c r="B870" s="15"/>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B870" s="12"/>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A871" s="13"/>
-      <c r="B871" s="15"/>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B871" s="12"/>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A872" s="13"/>
-      <c r="B872" s="15"/>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B872" s="12"/>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A873" s="13"/>
-      <c r="B873" s="15"/>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B873" s="12"/>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A874" s="13"/>
-      <c r="B874" s="15"/>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B874" s="12"/>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A875" s="13"/>
-      <c r="B875" s="15"/>
-    </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B875" s="12"/>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A876" s="13"/>
-      <c r="B876" s="15"/>
-    </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B876" s="12"/>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A877" s="13"/>
-      <c r="B877" s="15"/>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B877" s="12"/>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A878" s="13"/>
-      <c r="B878" s="15"/>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B878" s="12"/>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A879" s="13"/>
-      <c r="B879" s="15"/>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B879" s="12"/>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A880" s="13"/>
-      <c r="B880" s="15"/>
+      <c r="B880" s="12"/>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A881" s="13"/>
-      <c r="B881" s="15"/>
+      <c r="B881" s="12"/>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A882" s="13"/>
-      <c r="B882" s="15"/>
+      <c r="B882" s="12"/>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A883" s="13"/>
-      <c r="B883" s="15"/>
+      <c r="B883" s="12"/>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A884" s="13"/>
-      <c r="B884" s="15"/>
+      <c r="B884" s="12"/>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A885" s="13"/>
-      <c r="B885" s="15"/>
+      <c r="B885" s="12"/>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A886" s="13"/>
-      <c r="B886" s="15"/>
+      <c r="B886" s="12"/>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A887" s="13"/>
-      <c r="B887" s="15"/>
+      <c r="B887" s="12"/>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A888" s="13"/>
-      <c r="B888" s="15"/>
+      <c r="B888" s="12"/>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A889" s="13"/>
-      <c r="B889" s="15"/>
+      <c r="B889" s="12"/>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A890" s="13"/>
-      <c r="B890" s="15"/>
-      <c r="D890" s="3"/>
-      <c r="I890" s="2"/>
+      <c r="B890" s="12"/>
     </row>
     <row r="891" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A891" s="13"/>
-      <c r="B891" s="15"/>
+      <c r="B891" s="12"/>
       <c r="D891" s="3"/>
       <c r="I891" s="2"/>
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A892" s="13"/>
-      <c r="B892" s="15"/>
+      <c r="B892" s="12"/>
       <c r="D892" s="3"/>
       <c r="I892" s="2"/>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A893" s="13"/>
-      <c r="B893" s="15"/>
+      <c r="B893" s="12"/>
       <c r="D893" s="3"/>
       <c r="I893" s="2"/>
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A894" s="13"/>
-      <c r="B894" s="15"/>
+      <c r="B894" s="12"/>
       <c r="D894" s="3"/>
       <c r="I894" s="2"/>
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A895" s="13"/>
-      <c r="B895" s="15"/>
+      <c r="B895" s="12"/>
       <c r="D895" s="3"/>
       <c r="I895" s="2"/>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A896" s="13"/>
-      <c r="B896" s="15"/>
+      <c r="B896" s="12"/>
+      <c r="D896" s="3"/>
       <c r="I896" s="2"/>
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A897" s="13"/>
-      <c r="B897" s="15"/>
+      <c r="B897" s="12"/>
       <c r="I897" s="2"/>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A898" s="13"/>
-      <c r="B898" s="15"/>
+      <c r="B898" s="12"/>
       <c r="I898" s="2"/>
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A899" s="13"/>
-      <c r="B899" s="15"/>
+      <c r="B899" s="12"/>
       <c r="I899" s="2"/>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A900" s="13"/>
-      <c r="B900" s="15"/>
+      <c r="B900" s="12"/>
       <c r="I900" s="2"/>
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A901" s="13"/>
-      <c r="B901" s="15"/>
+      <c r="B901" s="12"/>
       <c r="I901" s="2"/>
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A902" s="13"/>
-      <c r="B902" s="15"/>
+      <c r="B902" s="12"/>
       <c r="I902" s="2"/>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A903" s="13"/>
-      <c r="B903" s="15"/>
+      <c r="B903" s="12"/>
       <c r="I903" s="2"/>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A904" s="13"/>
-      <c r="B904" s="15"/>
+      <c r="B904" s="12"/>
       <c r="I904" s="2"/>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A905" s="13"/>
-      <c r="B905" s="15"/>
+      <c r="B905" s="12"/>
       <c r="I905" s="2"/>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A906" s="13"/>
-      <c r="B906" s="15"/>
+      <c r="B906" s="12"/>
       <c r="I906" s="2"/>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A907" s="13"/>
-      <c r="B907" s="15"/>
+      <c r="B907" s="12"/>
       <c r="I907" s="2"/>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A908" s="13"/>
-      <c r="B908" s="15"/>
+      <c r="B908" s="12"/>
       <c r="I908" s="2"/>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A909" s="13"/>
-      <c r="B909" s="15"/>
+      <c r="B909" s="12"/>
       <c r="I909" s="2"/>
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A910" s="13"/>
-      <c r="B910" s="15"/>
+      <c r="B910" s="12"/>
       <c r="I910" s="2"/>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A911" s="13"/>
-      <c r="B911" s="15"/>
+      <c r="B911" s="12"/>
       <c r="I911" s="2"/>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A912" s="13"/>
-      <c r="B912" s="15"/>
+      <c r="B912" s="12"/>
+      <c r="I912" s="2"/>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A913" s="13"/>
-      <c r="B913" s="15"/>
+      <c r="B913" s="12"/>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A914" s="13"/>
-      <c r="B914" s="15"/>
+      <c r="B914" s="12"/>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A915" s="13"/>
-      <c r="B915" s="15"/>
+      <c r="B915" s="12"/>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A916" s="13"/>
-      <c r="B916" s="15"/>
+      <c r="B916" s="12"/>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A917" s="13"/>
-      <c r="B917" s="15"/>
+      <c r="B917" s="12"/>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A918" s="13"/>
-      <c r="B918" s="15"/>
+      <c r="B918" s="12"/>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A919" s="13"/>
-      <c r="B919" s="15"/>
+      <c r="B919" s="12"/>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A920" s="13"/>
-      <c r="B920" s="15"/>
+      <c r="B920" s="12"/>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A921" s="13"/>
-      <c r="B921" s="15"/>
-    </row>
-    <row r="922" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B921" s="12"/>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A922" s="13"/>
-      <c r="B922" s="15"/>
-    </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="B922" s="12"/>
+    </row>
+    <row r="923" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A923" s="13"/>
-      <c r="B923" s="15"/>
+      <c r="B923" s="12"/>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A924" s="13"/>
-      <c r="B924" s="15"/>
+      <c r="B924" s="12"/>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A925" s="13"/>
-      <c r="B925" s="15"/>
+      <c r="B925" s="12"/>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A926" s="13"/>
-      <c r="B926" s="15"/>
+      <c r="B926" s="12"/>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A927" s="13"/>
-      <c r="B927" s="15"/>
+      <c r="B927" s="12"/>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A928" s="13"/>
-      <c r="B928" s="15"/>
+      <c r="B928" s="12"/>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A929" s="13"/>
-      <c r="B929" s="15"/>
+      <c r="B929" s="12"/>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A930" s="13"/>
-      <c r="B930" s="15"/>
+      <c r="B930" s="12"/>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A931" s="13"/>
-      <c r="B931" s="15"/>
+      <c r="B931" s="12"/>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A932" s="13"/>
-      <c r="B932" s="15"/>
+      <c r="B932" s="12"/>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A933" s="13"/>
-      <c r="B933" s="15"/>
+      <c r="B933" s="12"/>
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A934" s="13"/>
-      <c r="B934" s="15"/>
+      <c r="B934" s="12"/>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A935" s="13"/>
-      <c r="B935" s="15"/>
+      <c r="B935" s="12"/>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A936" s="13"/>
-      <c r="B936" s="15"/>
-      <c r="H936" s="2"/>
+      <c r="B936" s="12"/>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A937" s="13"/>
-      <c r="B937" s="15"/>
+      <c r="B937" s="12"/>
       <c r="H937" s="2"/>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A938" s="13"/>
-      <c r="B938" s="15"/>
+      <c r="B938" s="12"/>
       <c r="H938" s="2"/>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A939" s="13"/>
-      <c r="B939" s="15"/>
+      <c r="B939" s="12"/>
       <c r="H939" s="2"/>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A940" s="13"/>
-      <c r="B940" s="15"/>
+      <c r="B940" s="12"/>
       <c r="H940" s="2"/>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A941" s="13"/>
-      <c r="B941" s="15"/>
+      <c r="B941" s="12"/>
       <c r="H941" s="2"/>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A942" s="13"/>
-      <c r="B942" s="15"/>
+      <c r="B942" s="12"/>
       <c r="H942" s="2"/>
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A943" s="13"/>
-      <c r="B943" s="15"/>
+      <c r="B943" s="12"/>
       <c r="H943" s="2"/>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A944" s="13"/>
-      <c r="B944" s="13"/>
+      <c r="B944" s="12"/>
+      <c r="H944" s="2"/>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A945" s="13"/>
+      <c r="B945" s="13"/>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A946" s="13"/>
-      <c r="B946" s="15"/>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A947" s="13"/>
-      <c r="B947" s="15"/>
+      <c r="B947" s="12"/>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A948" s="13"/>
-      <c r="B948" s="15"/>
+      <c r="B948" s="12"/>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A949" s="13"/>
-      <c r="B949" s="15"/>
+      <c r="B949" s="12"/>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A950" s="13"/>
-      <c r="B950" s="15"/>
+      <c r="B950" s="12"/>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A951" s="13"/>
-      <c r="B951" s="15"/>
+      <c r="B951" s="12"/>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A952" s="13"/>
-      <c r="B952" s="15"/>
+      <c r="B952" s="12"/>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A953" s="13"/>
-      <c r="B953" s="15"/>
+      <c r="B953" s="12"/>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A954" s="13"/>
-      <c r="B954" s="15"/>
+      <c r="B954" s="12"/>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A955" s="13"/>
-      <c r="B955" s="15"/>
+      <c r="B955" s="12"/>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A956" s="13"/>
-      <c r="B956" s="15"/>
+      <c r="B956" s="12"/>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A957" s="13"/>
-      <c r="B957" s="15"/>
+      <c r="B957" s="12"/>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A958" s="13"/>
-      <c r="B958" s="15"/>
+      <c r="B958" s="12"/>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A959" s="13"/>
-      <c r="B959" s="15"/>
+      <c r="B959" s="12"/>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A960" s="13"/>
-      <c r="B960" s="15"/>
+      <c r="B960" s="12"/>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A961" s="13"/>
-      <c r="B961" s="15"/>
+      <c r="B961" s="12"/>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A962" s="13"/>
-      <c r="B962" s="15"/>
+      <c r="B962" s="12"/>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A963" s="13"/>
-      <c r="B963" s="15"/>
+      <c r="B963" s="12"/>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A964" s="13"/>
-      <c r="B964" s="15"/>
+      <c r="B964" s="12"/>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A965" s="13"/>
-      <c r="B965" s="15"/>
+      <c r="B965" s="12"/>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A966" s="13"/>
-      <c r="B966" s="13"/>
+      <c r="B966" s="12"/>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A967" s="13"/>
@@ -7666,11 +7681,11 @@
       <c r="A972" s="13"/>
       <c r="B972" s="13"/>
     </row>
-    <row r="973" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="974" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
     </row>
@@ -7678,11 +7693,11 @@
       <c r="A975" s="13"/>
       <c r="B975" s="13"/>
     </row>
-    <row r="976" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A976" s="13"/>
       <c r="B976" s="13"/>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="977" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A977" s="13"/>
       <c r="B977" s="13"/>
     </row>
@@ -7716,86 +7731,85 @@
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A985" s="13"/>
-      <c r="B985" s="15"/>
+      <c r="B985" s="13"/>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A986" s="13"/>
-      <c r="B986" s="15"/>
-      <c r="H986" s="2"/>
+      <c r="B986" s="12"/>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A987" s="13"/>
-      <c r="B987" s="15"/>
+      <c r="B987" s="12"/>
       <c r="H987" s="2"/>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A988" s="13"/>
-      <c r="B988" s="15"/>
+      <c r="B988" s="12"/>
       <c r="H988" s="2"/>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A989" s="13"/>
-      <c r="B989" s="15"/>
+      <c r="B989" s="12"/>
       <c r="H989" s="2"/>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A990" s="13"/>
-      <c r="B990" s="15"/>
+      <c r="B990" s="12"/>
       <c r="H990" s="2"/>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A991" s="13"/>
-      <c r="B991" s="15"/>
+      <c r="B991" s="12"/>
       <c r="H991" s="2"/>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A992" s="13"/>
-      <c r="B992" s="15"/>
+      <c r="B992" s="12"/>
       <c r="H992" s="2"/>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A993" s="13"/>
-      <c r="B993" s="15"/>
+      <c r="B993" s="12"/>
       <c r="H993" s="2"/>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A994" s="13"/>
-      <c r="B994" s="15"/>
+      <c r="B994" s="12"/>
       <c r="H994" s="2"/>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A995" s="13"/>
-      <c r="B995" s="15"/>
+      <c r="B995" s="12"/>
       <c r="H995" s="2"/>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A996" s="13"/>
-      <c r="B996" s="15"/>
+      <c r="B996" s="12"/>
       <c r="H996" s="2"/>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A997" s="13"/>
-      <c r="B997" s="15"/>
+      <c r="B997" s="12"/>
       <c r="H997" s="2"/>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A998" s="13"/>
-      <c r="B998" s="15"/>
+      <c r="B998" s="12"/>
       <c r="H998" s="2"/>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A999" s="13"/>
-      <c r="B999" s="15"/>
+      <c r="B999" s="12"/>
       <c r="H999" s="2"/>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1000" s="13"/>
-      <c r="B1000" s="15"/>
+      <c r="B1000" s="12"/>
       <c r="H1000" s="2"/>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1001" s="13"/>
-      <c r="B1001" s="13"/>
+      <c r="B1001" s="12"/>
       <c r="H1001" s="2"/>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.6">
@@ -7815,6 +7829,7 @@
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1005" s="13"/>
+      <c r="B1005" s="13"/>
       <c r="H1005" s="2"/>
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.6">
@@ -7823,7 +7838,6 @@
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1007" s="13"/>
-      <c r="B1007" s="13"/>
       <c r="H1007" s="2"/>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.6">
@@ -7853,77 +7867,77 @@
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1013" s="13"/>
-      <c r="B1013" s="15"/>
+      <c r="B1013" s="13"/>
       <c r="H1013" s="2"/>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1014" s="13"/>
-      <c r="B1014" s="15"/>
+      <c r="B1014" s="12"/>
       <c r="H1014" s="2"/>
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1015" s="13"/>
-      <c r="B1015" s="15"/>
+      <c r="B1015" s="12"/>
       <c r="H1015" s="2"/>
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1016" s="13"/>
-      <c r="B1016" s="15"/>
+      <c r="B1016" s="12"/>
       <c r="H1016" s="2"/>
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1017" s="13"/>
-      <c r="B1017" s="15"/>
+      <c r="B1017" s="12"/>
       <c r="H1017" s="2"/>
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1018" s="13"/>
-      <c r="B1018" s="15"/>
+      <c r="B1018" s="12"/>
       <c r="H1018" s="2"/>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1019" s="13"/>
-      <c r="B1019" s="15"/>
+      <c r="B1019" s="12"/>
       <c r="H1019" s="2"/>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1020" s="13"/>
-      <c r="B1020" s="15"/>
+      <c r="B1020" s="12"/>
       <c r="H1020" s="2"/>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1021" s="13"/>
-      <c r="B1021" s="15"/>
+      <c r="B1021" s="12"/>
       <c r="H1021" s="2"/>
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1022" s="13"/>
-      <c r="B1022" s="15"/>
+      <c r="B1022" s="12"/>
       <c r="H1022" s="2"/>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1023" s="13"/>
-      <c r="B1023" s="15"/>
+      <c r="B1023" s="12"/>
       <c r="H1023" s="2"/>
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1024" s="13"/>
-      <c r="B1024" s="15"/>
+      <c r="B1024" s="12"/>
       <c r="H1024" s="2"/>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1025" s="13"/>
-      <c r="B1025" s="15"/>
+      <c r="B1025" s="12"/>
       <c r="H1025" s="2"/>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1026" s="13"/>
-      <c r="B1026" s="15"/>
+      <c r="B1026" s="12"/>
       <c r="H1026" s="2"/>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1027" s="13"/>
-      <c r="B1027" s="13"/>
+      <c r="B1027" s="12"/>
       <c r="H1027" s="2"/>
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.6">
@@ -8126,9 +8140,10 @@
       <c r="B1067" s="13"/>
       <c r="H1067" s="2"/>
     </row>
-    <row r="1068" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1068" s="13"/>
       <c r="B1068" s="13"/>
+      <c r="H1068" s="2"/>
     </row>
     <row r="1069" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1069" s="13"/>
@@ -8170,7 +8185,7 @@
       <c r="A1078" s="13"/>
       <c r="B1078" s="13"/>
     </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1079" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1079" s="13"/>
       <c r="B1079" s="13"/>
     </row>
@@ -8369,11 +8384,11 @@
     <row r="1128" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1128" s="13"/>
       <c r="B1128" s="13"/>
-      <c r="H1128" s="2"/>
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1129" s="13"/>
       <c r="B1129" s="13"/>
+      <c r="H1129" s="2"/>
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1130" s="13"/>
@@ -8387,11 +8402,11 @@
       <c r="A1132" s="13"/>
       <c r="B1132" s="13"/>
     </row>
-    <row r="1133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1133" s="13"/>
       <c r="B1133" s="13"/>
     </row>
-    <row r="1134" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1134" s="13"/>
       <c r="B1134" s="13"/>
     </row>
@@ -8803,11 +8818,11 @@
       <c r="A1236" s="13"/>
       <c r="B1236" s="13"/>
     </row>
-    <row r="1237" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1237" s="13"/>
       <c r="B1237" s="13"/>
     </row>
-    <row r="1238" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1238" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1238" s="13"/>
       <c r="B1238" s="13"/>
     </row>
@@ -8827,11 +8842,11 @@
       <c r="A1242" s="13"/>
       <c r="B1242" s="13"/>
     </row>
-    <row r="1243" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1243" s="13"/>
       <c r="B1243" s="13"/>
     </row>
-    <row r="1244" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1244" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1244" s="13"/>
       <c r="B1244" s="13"/>
     </row>
@@ -8877,6 +8892,7 @@
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1255" s="13"/>
+      <c r="B1255" s="13"/>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1256" s="13"/>
@@ -8905,10 +8921,10 @@
     <row r="1264" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1264" s="13"/>
     </row>
-    <row r="1265" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1265" s="13"/>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="1266" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1266" s="13"/>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.6">
@@ -9631,80 +9647,83 @@
     <row r="1506" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1506" s="13"/>
     </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A1507" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B965:B984"/>
-    <mergeCell ref="B778:B781"/>
-    <mergeCell ref="B997:B999"/>
-    <mergeCell ref="B991:B996"/>
-    <mergeCell ref="B535:B541"/>
-    <mergeCell ref="B985:B990"/>
-    <mergeCell ref="B933:B942"/>
-    <mergeCell ref="B721:B723"/>
-    <mergeCell ref="B901:B932"/>
-    <mergeCell ref="B881:B900"/>
-    <mergeCell ref="B811:B815"/>
-    <mergeCell ref="B818:B825"/>
-    <mergeCell ref="B816:B817"/>
-    <mergeCell ref="B946:B964"/>
-    <mergeCell ref="B943:B944"/>
-    <mergeCell ref="B826:B880"/>
-    <mergeCell ref="B782:B810"/>
-    <mergeCell ref="B729:B774"/>
-    <mergeCell ref="A956:A962"/>
-    <mergeCell ref="A981:A1506"/>
-    <mergeCell ref="B1094:B1254"/>
-    <mergeCell ref="A979:A980"/>
-    <mergeCell ref="A973:A978"/>
-    <mergeCell ref="A963:A972"/>
-    <mergeCell ref="B1080:B1083"/>
-    <mergeCell ref="B1067:B1079"/>
-    <mergeCell ref="B1026:B1028"/>
-    <mergeCell ref="B1092:B1093"/>
-    <mergeCell ref="B1084:B1091"/>
-    <mergeCell ref="B1057:B1066"/>
-    <mergeCell ref="B1029:B1056"/>
-    <mergeCell ref="B1013:B1025"/>
-    <mergeCell ref="B1007:B1012"/>
-    <mergeCell ref="B1000:B1004"/>
-    <mergeCell ref="A4:A955"/>
-    <mergeCell ref="B704:B709"/>
-    <mergeCell ref="B227:B377"/>
-    <mergeCell ref="B700:B702"/>
-    <mergeCell ref="B487:B509"/>
-    <mergeCell ref="B510:B530"/>
-    <mergeCell ref="B531:B534"/>
-    <mergeCell ref="B692:B699"/>
-    <mergeCell ref="B584:B585"/>
-    <mergeCell ref="B660:B669"/>
-    <mergeCell ref="B775:B777"/>
-    <mergeCell ref="B711:B715"/>
-    <mergeCell ref="B716:B720"/>
-    <mergeCell ref="B724:B726"/>
-    <mergeCell ref="I50:M110"/>
-    <mergeCell ref="B42:B53"/>
-    <mergeCell ref="B613:B632"/>
-    <mergeCell ref="B579:B582"/>
-    <mergeCell ref="B684:B691"/>
-    <mergeCell ref="B601:B612"/>
-    <mergeCell ref="B591:B600"/>
-    <mergeCell ref="B633:B659"/>
-    <mergeCell ref="B586:B589"/>
-    <mergeCell ref="B670:B683"/>
-    <mergeCell ref="B79:B180"/>
-    <mergeCell ref="B181:B226"/>
-    <mergeCell ref="B54:B78"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="H18:H26"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H722:H724"/>
+    <mergeCell ref="B470:B487"/>
+    <mergeCell ref="I228:O259"/>
+    <mergeCell ref="I260:O265"/>
+    <mergeCell ref="I266:O299"/>
+    <mergeCell ref="B379:B469"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H19:H27"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="H28:H32"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H721:H723"/>
-    <mergeCell ref="B469:B486"/>
-    <mergeCell ref="I227:O258"/>
-    <mergeCell ref="I259:O264"/>
-    <mergeCell ref="I265:O298"/>
-    <mergeCell ref="B378:B468"/>
+    <mergeCell ref="I51:M111"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B614:B633"/>
+    <mergeCell ref="B580:B583"/>
+    <mergeCell ref="B685:B692"/>
+    <mergeCell ref="B602:B613"/>
+    <mergeCell ref="B592:B601"/>
+    <mergeCell ref="B634:B660"/>
+    <mergeCell ref="B587:B590"/>
+    <mergeCell ref="B671:B684"/>
+    <mergeCell ref="B80:B181"/>
+    <mergeCell ref="B182:B227"/>
+    <mergeCell ref="B55:B79"/>
+    <mergeCell ref="B1008:B1013"/>
+    <mergeCell ref="B1001:B1005"/>
+    <mergeCell ref="A4:A956"/>
+    <mergeCell ref="B705:B710"/>
+    <mergeCell ref="B228:B378"/>
+    <mergeCell ref="B701:B703"/>
+    <mergeCell ref="B488:B510"/>
+    <mergeCell ref="B511:B531"/>
+    <mergeCell ref="B532:B535"/>
+    <mergeCell ref="B693:B700"/>
+    <mergeCell ref="B585:B586"/>
+    <mergeCell ref="B661:B670"/>
+    <mergeCell ref="B776:B778"/>
+    <mergeCell ref="B712:B716"/>
+    <mergeCell ref="B717:B721"/>
+    <mergeCell ref="B725:B727"/>
+    <mergeCell ref="B783:B811"/>
+    <mergeCell ref="B730:B775"/>
+    <mergeCell ref="A957:A963"/>
+    <mergeCell ref="A982:A1507"/>
+    <mergeCell ref="B1095:B1255"/>
+    <mergeCell ref="A980:A981"/>
+    <mergeCell ref="A974:A979"/>
+    <mergeCell ref="A964:A973"/>
+    <mergeCell ref="B1081:B1084"/>
+    <mergeCell ref="B1068:B1080"/>
+    <mergeCell ref="B1027:B1029"/>
+    <mergeCell ref="B1093:B1094"/>
+    <mergeCell ref="B1085:B1092"/>
+    <mergeCell ref="B1058:B1067"/>
+    <mergeCell ref="B1030:B1057"/>
+    <mergeCell ref="B1014:B1026"/>
+    <mergeCell ref="B966:B985"/>
+    <mergeCell ref="B779:B782"/>
+    <mergeCell ref="B998:B1000"/>
+    <mergeCell ref="B992:B997"/>
+    <mergeCell ref="B536:B542"/>
+    <mergeCell ref="B986:B991"/>
+    <mergeCell ref="B934:B943"/>
+    <mergeCell ref="B722:B724"/>
+    <mergeCell ref="B902:B933"/>
+    <mergeCell ref="B882:B901"/>
+    <mergeCell ref="B812:B816"/>
+    <mergeCell ref="B819:B826"/>
+    <mergeCell ref="B817:B818"/>
+    <mergeCell ref="B947:B965"/>
+    <mergeCell ref="B944:B945"/>
+    <mergeCell ref="B827:B881"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3">
@@ -9717,105 +9736,105 @@
     <cfRule type="duplicateValues" dxfId="153" priority="22"/>
     <cfRule type="duplicateValues" dxfId="152" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C8">
+  <conditionalFormatting sqref="C4:C9">
     <cfRule type="duplicateValues" dxfId="151" priority="14748"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C181:C469 C471 C473 C475 C477:C478 C480 C482 C484 C486">
+  <conditionalFormatting sqref="C182:C470 C472 C474 C476 C478:C479 C481 C483 C485 C487">
     <cfRule type="duplicateValues" dxfId="150" priority="14678"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C506:C570">
+  <conditionalFormatting sqref="C507:C571">
     <cfRule type="duplicateValues" dxfId="149" priority="9454"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C571:C573">
+  <conditionalFormatting sqref="C572:C574">
     <cfRule type="duplicateValues" dxfId="148" priority="106"/>
     <cfRule type="duplicateValues" dxfId="147" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C679:C686">
+  <conditionalFormatting sqref="C680:C687">
     <cfRule type="duplicateValues" dxfId="146" priority="5969"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C688">
+  <conditionalFormatting sqref="C689">
     <cfRule type="duplicateValues" dxfId="145" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C695 C697">
+  <conditionalFormatting sqref="C696 C698">
     <cfRule type="duplicateValues" dxfId="144" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C705">
+  <conditionalFormatting sqref="C706">
     <cfRule type="duplicateValues" dxfId="143" priority="159"/>
     <cfRule type="duplicateValues" dxfId="142" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C752">
+  <conditionalFormatting sqref="C753">
     <cfRule type="duplicateValues" dxfId="141" priority="156"/>
     <cfRule type="duplicateValues" dxfId="140" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C763">
+  <conditionalFormatting sqref="C764">
     <cfRule type="duplicateValues" dxfId="139" priority="119"/>
     <cfRule type="duplicateValues" dxfId="138" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C764 C766:C767">
+  <conditionalFormatting sqref="C765 C767:C768">
     <cfRule type="duplicateValues" dxfId="137" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C764">
+  <conditionalFormatting sqref="C765">
     <cfRule type="duplicateValues" dxfId="136" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C765:C767">
+  <conditionalFormatting sqref="C766:C768">
     <cfRule type="duplicateValues" dxfId="135" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C767">
+  <conditionalFormatting sqref="C768">
     <cfRule type="duplicateValues" dxfId="134" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C856:C875">
+  <conditionalFormatting sqref="C857:C876">
     <cfRule type="duplicateValues" dxfId="133" priority="7424"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C896:C927">
+  <conditionalFormatting sqref="C897:C928">
     <cfRule type="duplicateValues" dxfId="132" priority="161"/>
     <cfRule type="duplicateValues" dxfId="131" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C938:C940">
+  <conditionalFormatting sqref="C939:C941">
     <cfRule type="duplicateValues" dxfId="130" priority="1722"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C980 C982 C984 C986:C998 C1000 C1002:C1006 C1008:C1077">
+  <conditionalFormatting sqref="C981 C983 C985 C987:C999 C1001 C1003:C1007 C1009:C1078">
     <cfRule type="duplicateValues" dxfId="129" priority="8164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C981 C983 C985 C941:C979 C689:C693 C687 C641 C928:C937 C698:C704 C706:C751 C655:C678 C876:C895 C753:C760 C574:C639 C806:C855 C777:C803 C470 C49:C180 C472 C474 C476 C479 C481 C483 C485 C487:C508 C7:C46">
+  <conditionalFormatting sqref="C982 C984 C986 C942:C980 C690:C694 C688 C642 C929:C938 C699:C705 C707:C752 C656:C679 C877:C896 C754:C761 C575:C640 C807:C856 C778:C804 C471 C50:C181 C473 C475 C477 C480 C482 C484 C486 C488:C509 C8:C47">
     <cfRule type="duplicateValues" dxfId="128" priority="14749"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1001">
+  <conditionalFormatting sqref="C1002">
     <cfRule type="duplicateValues" dxfId="127" priority="137"/>
     <cfRule type="duplicateValues" dxfId="126" priority="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1079:C1086">
+  <conditionalFormatting sqref="C1080:C1087">
     <cfRule type="duplicateValues" dxfId="125" priority="9753"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1087:C1088">
+  <conditionalFormatting sqref="C1088:C1089">
     <cfRule type="duplicateValues" dxfId="124" priority="103"/>
     <cfRule type="duplicateValues" dxfId="123" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1089:C1242 C928:C1000 C706:C751 C876:C895 C753:C760 C1002:C1006 C1008:C1077 C695:C704 C1244 C574:C693 C806:C855 C777:C803 C1246:C1048576 C470 C49:C180 C472 C474 C476 C479 C481 C483 C485 C487:C508 C4:C46">
+  <conditionalFormatting sqref="C1090:C1243 C929:C1001 C707:C752 C877:C896 C754:C761 C1003:C1007 C1009:C1078 C696:C705 C1245 C575:C694 C807:C856 C778:C804 C1247:C1048576 C471 C50:C181 C473 C475 C477 C480 C482 C484 C486 C488:C509 C4:C47">
     <cfRule type="duplicateValues" dxfId="122" priority="14715"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1089:C1242 C1244 C1079:C1086 C806:C1077 C770:C803 C574:C767 C1246:C1048576 C470 C49:C180 C472 C474 C476 C479 C481 C483 C485 C487:C570 C4:C46">
+  <conditionalFormatting sqref="C1090:C1243 C1245 C1080:C1087 C807:C1078 C771:C804 C575:C768 C1247:C1048576 C471 C50:C181 C473 C475 C477 C480 C482 C484 C486 C488:C571 C4:C47">
     <cfRule type="duplicateValues" dxfId="121" priority="14747"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1090">
+  <conditionalFormatting sqref="C1091">
     <cfRule type="duplicateValues" dxfId="120" priority="256"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1091 C1093 C1095 C1097 C1099 C1101">
+  <conditionalFormatting sqref="C1092 C1094 C1096 C1098 C1100 C1102">
     <cfRule type="duplicateValues" dxfId="119" priority="255"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1091">
+  <conditionalFormatting sqref="C1092">
     <cfRule type="duplicateValues" dxfId="118" priority="254"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1145:C1146 C1128 C1089 C1103 C1107 C1109 C1111 C1113 C1115 C1117 C1119 C1121 C1123 C1125 C1130 C1132 C1134 C1136 C1138 C1140 C1142 C1148 C1150 C1152 C1154 C1156 C1158 C1160 C1162 C1164 C1166 C1168 C1170 C1172 C1174 C1105 C1176 C1179:C1242 C1244 C1246:C1048576">
+  <conditionalFormatting sqref="C1146:C1147 C1129 C1090 C1104 C1108 C1110 C1112 C1114 C1116 C1118 C1120 C1122 C1124 C1126 C1131 C1133 C1135 C1137 C1139 C1141 C1143 C1149 C1151 C1153 C1155 C1157 C1159 C1161 C1163 C1165 C1167 C1169 C1171 C1173 C1175 C1106 C1177 C1180:C1243 C1245 C1247:C1048576">
     <cfRule type="duplicateValues" dxfId="117" priority="312"/>
     <cfRule type="duplicateValues" dxfId="116" priority="858"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1147 C1106 C696 C1090 C1092 C1094 C1096 C1098 C1100 C1102 C1108 C1110 C1112 C1114 C1116 C1118 C1120 C1122 C1124 C1126:C1127 C1129 C1131 C1133 C1135 C1137 C1139 C1141 C1143:C1144 C1149 C1151 C1153 C1155 C1157 C1159 C1161 C1163 C1165 C1167 C1169 C1171 C1173 C1175 C1104 C1177:C1178">
+  <conditionalFormatting sqref="C1148 C1107 C697 C1091 C1093 C1095 C1097 C1099 C1101 C1103 C1109 C1111 C1113 C1115 C1117 C1119 C1121 C1123 C1125 C1127:C1128 C1130 C1132 C1134 C1136 C1138 C1140 C1142 C1144:C1145 C1150 C1152 C1154 C1156 C1158 C1160 C1162 C1164 C1166 C1168 C1170 C1172 C1174 C1176 C1105 C1178:C1179">
     <cfRule type="duplicateValues" dxfId="115" priority="1045"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1243 C1245">
+  <conditionalFormatting sqref="C1244 C1246">
     <cfRule type="duplicateValues" dxfId="114" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1243">
+  <conditionalFormatting sqref="C1244">
     <cfRule type="duplicateValues" dxfId="113" priority="98"/>
     <cfRule type="duplicateValues" dxfId="112" priority="99"/>
     <cfRule type="duplicateValues" dxfId="111" priority="101"/>
@@ -9827,184 +9846,184 @@
     <cfRule type="duplicateValues" dxfId="107" priority="15"/>
     <cfRule type="duplicateValues" dxfId="106" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D9">
+  <conditionalFormatting sqref="D5:D10">
     <cfRule type="duplicateValues" dxfId="105" priority="178"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D63">
+  <conditionalFormatting sqref="D55:D64">
     <cfRule type="duplicateValues" dxfId="104" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D78">
+  <conditionalFormatting sqref="D65:D79">
     <cfRule type="duplicateValues" dxfId="103" priority="13557"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D479">
+  <conditionalFormatting sqref="D480">
     <cfRule type="duplicateValues" dxfId="102" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D506">
+  <conditionalFormatting sqref="D507">
     <cfRule type="duplicateValues" dxfId="101" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D524:D525 D548 D517:D519 D507:D512">
+  <conditionalFormatting sqref="D525:D526 D549 D518:D520 D508:D513">
     <cfRule type="duplicateValues" dxfId="100" priority="8903"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D533:D538 D549 D543:D547 K776">
+  <conditionalFormatting sqref="D534:D539 D550 D544:D548 K777">
     <cfRule type="duplicateValues" dxfId="99" priority="9242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D596">
+  <conditionalFormatting sqref="D597">
     <cfRule type="duplicateValues" dxfId="98" priority="224"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D597">
+  <conditionalFormatting sqref="D598">
     <cfRule type="duplicateValues" dxfId="97" priority="220"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D598">
+  <conditionalFormatting sqref="D599">
     <cfRule type="duplicateValues" dxfId="96" priority="222"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D599:D607">
+  <conditionalFormatting sqref="D600:D608">
     <cfRule type="duplicateValues" dxfId="95" priority="8562"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D640:D641">
+  <conditionalFormatting sqref="D641:D642">
     <cfRule type="duplicateValues" dxfId="94" priority="3559"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D642:D652">
+  <conditionalFormatting sqref="D643:D653">
     <cfRule type="duplicateValues" dxfId="93" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D653:D654">
+  <conditionalFormatting sqref="D654:D655">
     <cfRule type="duplicateValues" dxfId="92" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D666:D667">
+  <conditionalFormatting sqref="D667:D668">
     <cfRule type="duplicateValues" dxfId="91" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D668">
+  <conditionalFormatting sqref="D669">
     <cfRule type="duplicateValues" dxfId="90" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D675">
+  <conditionalFormatting sqref="D676">
     <cfRule type="duplicateValues" dxfId="89" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D679">
+  <conditionalFormatting sqref="D680">
     <cfRule type="duplicateValues" dxfId="88" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D681">
+  <conditionalFormatting sqref="D682">
     <cfRule type="duplicateValues" dxfId="87" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D688">
+  <conditionalFormatting sqref="D689">
     <cfRule type="duplicateValues" dxfId="86" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D691">
+  <conditionalFormatting sqref="D692">
     <cfRule type="duplicateValues" dxfId="85" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D692:D693">
+  <conditionalFormatting sqref="D693:D694">
     <cfRule type="duplicateValues" dxfId="84" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D695">
+  <conditionalFormatting sqref="D696">
     <cfRule type="duplicateValues" dxfId="83" priority="183"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D699:D704 D706:D723">
+  <conditionalFormatting sqref="D700:D705 D707:D724">
     <cfRule type="duplicateValues" dxfId="82" priority="6305"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D705">
+  <conditionalFormatting sqref="D706">
     <cfRule type="duplicateValues" dxfId="81" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D727:D728">
+  <conditionalFormatting sqref="D728:D729">
     <cfRule type="duplicateValues" dxfId="80" priority="1883"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D729:D751 D753:D760">
+  <conditionalFormatting sqref="D730:D752 D754:D761">
     <cfRule type="duplicateValues" dxfId="79" priority="2135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D752">
+  <conditionalFormatting sqref="D753">
     <cfRule type="duplicateValues" dxfId="78" priority="155"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D763">
+  <conditionalFormatting sqref="D764">
     <cfRule type="duplicateValues" dxfId="77" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D764">
+  <conditionalFormatting sqref="D765">
     <cfRule type="duplicateValues" dxfId="76" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D765:D767">
+  <conditionalFormatting sqref="D766:D768">
     <cfRule type="duplicateValues" dxfId="75" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D777:D778">
+  <conditionalFormatting sqref="D778:D779">
     <cfRule type="duplicateValues" dxfId="74" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D779">
+  <conditionalFormatting sqref="D780">
     <cfRule type="duplicateValues" dxfId="73" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D780">
+  <conditionalFormatting sqref="D781">
     <cfRule type="duplicateValues" dxfId="72" priority="204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D781">
+  <conditionalFormatting sqref="D782">
     <cfRule type="duplicateValues" dxfId="71" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D782">
+  <conditionalFormatting sqref="D783">
     <cfRule type="duplicateValues" dxfId="70" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D783:D784">
+  <conditionalFormatting sqref="D784:D785">
     <cfRule type="duplicateValues" dxfId="69" priority="206"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D806:D810 D785:D803">
+  <conditionalFormatting sqref="D807:D811 D786:D804">
     <cfRule type="duplicateValues" dxfId="68" priority="9936"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D826">
+  <conditionalFormatting sqref="D827">
     <cfRule type="duplicateValues" dxfId="67" priority="234"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D876:D880 D882:D889">
+  <conditionalFormatting sqref="D877:D881 D883:D890">
     <cfRule type="duplicateValues" dxfId="66" priority="232"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D881">
+  <conditionalFormatting sqref="D882">
     <cfRule type="duplicateValues" dxfId="65" priority="231"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D896:D927">
+  <conditionalFormatting sqref="D897:D928">
     <cfRule type="duplicateValues" dxfId="64" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D938:D940">
+  <conditionalFormatting sqref="D939:D941">
     <cfRule type="duplicateValues" dxfId="63" priority="1723"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D941:D979 D47 D50:D51 D44:D45 D811:D812 D827:D834 D821:D825 D698 D608:D639 D689:D690 D724:D726 D680 D669:D674 D682:D687 D491:D505 D676:D678 D655:D665 D574:D595 D8:D12 D4">
+  <conditionalFormatting sqref="D942:D980 D48 D51:D52 D45:D46 D812:D813 D828:D835 D822:D826 D699 D609:D640 D690:D691 D725:D727 D681 D670:D675 D683:D688 D492:D506 D677:D679 D656:D666 D575:D596 D9:D13 D4">
     <cfRule type="duplicateValues" dxfId="62" priority="12220"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D981 D983 D985">
+  <conditionalFormatting sqref="D982 D984 D986">
     <cfRule type="duplicateValues" dxfId="61" priority="245"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1001">
+  <conditionalFormatting sqref="D1002">
     <cfRule type="duplicateValues" dxfId="60" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1024">
+  <conditionalFormatting sqref="D1025">
     <cfRule type="duplicateValues" dxfId="59" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1025:D1028 D980 D982 D984 D1000 D986:D998 D1032:D1077 D1008:D1023 D1002:D1006">
+  <conditionalFormatting sqref="D1026:D1029 D981 D983 D985 D1001 D987:D999 D1033:D1078 D1009:D1024 D1003:D1007">
     <cfRule type="duplicateValues" dxfId="58" priority="8154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1029:D1030">
+  <conditionalFormatting sqref="D1030:D1031">
     <cfRule type="duplicateValues" dxfId="57" priority="2626"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1031">
+  <conditionalFormatting sqref="D1032">
     <cfRule type="duplicateValues" dxfId="56" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1079">
+  <conditionalFormatting sqref="D1080">
     <cfRule type="duplicateValues" dxfId="55" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1080:D1086">
+  <conditionalFormatting sqref="D1081:D1087">
     <cfRule type="duplicateValues" dxfId="54" priority="9754"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1087:D1088">
+  <conditionalFormatting sqref="D1088:D1089">
     <cfRule type="duplicateValues" dxfId="53" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1090">
+  <conditionalFormatting sqref="D1091">
     <cfRule type="duplicateValues" dxfId="52" priority="258"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1212">
+  <conditionalFormatting sqref="D1213">
     <cfRule type="duplicateValues" dxfId="51" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1213">
+  <conditionalFormatting sqref="D1214">
     <cfRule type="duplicateValues" dxfId="50" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1214:D1227 D1197:D1211 D1186:D1188 D1089 D999 D696:D697 D1091:D1184 D1190:D1195 D1230:D1242 D1244:D1048576">
+  <conditionalFormatting sqref="D1215:D1228 D1198:D1212 D1187:D1189 D1090 D1000 D697:D698 D1092:D1185 D1191:D1196 D1231:D1243 D1245:D1048576">
     <cfRule type="duplicateValues" dxfId="49" priority="7226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1228">
+  <conditionalFormatting sqref="D1229">
     <cfRule type="duplicateValues" dxfId="48" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1229">
+  <conditionalFormatting sqref="D1230">
     <cfRule type="duplicateValues" dxfId="47" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1243">
+  <conditionalFormatting sqref="D1244">
     <cfRule type="duplicateValues" dxfId="46" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
@@ -10021,52 +10040,52 @@
     <cfRule type="duplicateValues" dxfId="37" priority="5"/>
     <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H853">
+  <conditionalFormatting sqref="H854">
     <cfRule type="duplicateValues" dxfId="35" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H854">
+  <conditionalFormatting sqref="H855">
     <cfRule type="duplicateValues" dxfId="34" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H855">
+  <conditionalFormatting sqref="H856">
     <cfRule type="duplicateValues" dxfId="33" priority="226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H856:H864">
+  <conditionalFormatting sqref="H857:H865">
     <cfRule type="duplicateValues" dxfId="32" priority="8561"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H936:H938 H940 H942:H943">
+  <conditionalFormatting sqref="H937:H939 H941 H943:H944">
     <cfRule type="duplicateValues" dxfId="31" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H939 H941">
+  <conditionalFormatting sqref="H940 H942">
     <cfRule type="duplicateValues" dxfId="30" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H986">
+  <conditionalFormatting sqref="H987">
     <cfRule type="duplicateValues" dxfId="29" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H987">
+  <conditionalFormatting sqref="H988">
     <cfRule type="duplicateValues" dxfId="28" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H988">
+  <conditionalFormatting sqref="H989">
     <cfRule type="duplicateValues" dxfId="27" priority="240"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H989:H1067">
+  <conditionalFormatting sqref="H990:H1068">
     <cfRule type="duplicateValues" dxfId="26" priority="10291"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I890:I891">
+  <conditionalFormatting sqref="I891:I892">
     <cfRule type="duplicateValues" dxfId="25" priority="212"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I892">
+  <conditionalFormatting sqref="I893">
     <cfRule type="duplicateValues" dxfId="24" priority="208"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I893">
+  <conditionalFormatting sqref="I894">
     <cfRule type="duplicateValues" dxfId="23" priority="211"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I894">
+  <conditionalFormatting sqref="I895">
     <cfRule type="duplicateValues" dxfId="22" priority="210"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I895">
+  <conditionalFormatting sqref="I896">
     <cfRule type="duplicateValues" dxfId="21" priority="209"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I896:I911">
+  <conditionalFormatting sqref="I897:I912">
     <cfRule type="duplicateValues" dxfId="20" priority="5803"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
